--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_OV.xlsx
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C2">
         <v>9035.640005532916</v>
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C4">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D4">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E4">
         <v>10180.53566507912</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C5">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D5">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E5">
         <v>10180.53566507912</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C6">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D6">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E6">
         <v>10180.53566507912</v>
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C12">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D12">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E12">
         <v>10180.53566507912</v>
@@ -592,13 +592,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C14">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D14">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E14">
         <v>10180.53566507912</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C16">
         <v>9035.640005532916</v>
@@ -643,13 +643,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4916.337812284894</v>
+        <v>4916.337812284895</v>
       </c>
       <c r="C17">
-        <v>6780.310030186256</v>
+        <v>6780.310030186254</v>
       </c>
       <c r="D17">
-        <v>9240.706429147047</v>
+        <v>9240.706429147045</v>
       </c>
       <c r="E17">
         <v>10180.53566507912</v>
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C19">
         <v>9035.640005532916</v>
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C20">
         <v>9035.640005532916</v>
@@ -711,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C21">
         <v>9035.640005532916</v>
@@ -731,7 +731,7 @@
         <v>1907.588688701054</v>
       </c>
       <c r="C22">
-        <v>2433.948397865206</v>
+        <v>2433.948397865205</v>
       </c>
       <c r="D22">
         <v>3530.800813524449</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6741.594956728872</v>
+        <v>6741.594956728871</v>
       </c>
       <c r="C23">
         <v>9035.640005532916</v>
@@ -765,13 +765,13 @@
         <v>3288.965146491223</v>
       </c>
       <c r="C24">
-        <v>3970.859887843747</v>
+        <v>3970.859887843748</v>
       </c>
       <c r="D24">
         <v>5075.791263991819</v>
       </c>
       <c r="E24">
-        <v>5678.93722893238</v>
+        <v>5678.937228932379</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -782,13 +782,13 @@
         <v>3288.965146491223</v>
       </c>
       <c r="C25">
-        <v>3970.859887843747</v>
+        <v>3970.859887843748</v>
       </c>
       <c r="D25">
         <v>5075.791263991819</v>
       </c>
       <c r="E25">
-        <v>5678.93722893238</v>
+        <v>5678.937228932379</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -799,13 +799,13 @@
         <v>3288.965146491223</v>
       </c>
       <c r="C26">
-        <v>3970.859887843747</v>
+        <v>3970.859887843748</v>
       </c>
       <c r="D26">
         <v>5075.791263991819</v>
       </c>
       <c r="E26">
-        <v>5678.93722893238</v>
+        <v>5678.937228932379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3217.198692841165</v>
+        <v>3217.198692841164</v>
       </c>
       <c r="C27">
-        <v>4191.381557638764</v>
+        <v>4191.381557638763</v>
       </c>
       <c r="D27">
-        <v>5851.491039317884</v>
+        <v>5851.491039317885</v>
       </c>
       <c r="E27">
         <v>6765.524622614401</v>
@@ -830,13 +830,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3217.198692841165</v>
+        <v>3217.198692841164</v>
       </c>
       <c r="C28">
-        <v>4191.381557638764</v>
+        <v>4191.381557638763</v>
       </c>
       <c r="D28">
-        <v>5851.491039317884</v>
+        <v>5851.491039317885</v>
       </c>
       <c r="E28">
         <v>6765.524622614401</v>
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3217.198692841165</v>
+        <v>3217.198692841164</v>
       </c>
       <c r="C29">
-        <v>4191.381557638764</v>
+        <v>4191.381557638763</v>
       </c>
       <c r="D29">
-        <v>5851.491039317884</v>
+        <v>5851.491039317885</v>
       </c>
       <c r="E29">
         <v>6765.524622614401</v>
@@ -938,7 +938,7 @@
         <v>17210.13607273541</v>
       </c>
       <c r="D34">
-        <v>23038.86759085334</v>
+        <v>23038.86759085335</v>
       </c>
       <c r="E34">
         <v>32164.66042777041</v>
@@ -958,7 +958,7 @@
         <v>22474.84053189551</v>
       </c>
       <c r="E35">
-        <v>31734.08161115619</v>
+        <v>31734.08161115618</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -972,10 +972,10 @@
         <v>15166.99523836013</v>
       </c>
       <c r="D36">
-        <v>21955.02499380954</v>
+        <v>21955.02499380953</v>
       </c>
       <c r="E36">
-        <v>31921.375317798</v>
+        <v>31921.37531779802</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1023,7 +1023,7 @@
         <v>17210.13607273541</v>
       </c>
       <c r="D39">
-        <v>23038.86759085334</v>
+        <v>23038.86759085335</v>
       </c>
       <c r="E39">
         <v>32164.66042777041</v>
@@ -1043,7 +1043,7 @@
         <v>22474.84053189551</v>
       </c>
       <c r="E40">
-        <v>31734.08161115619</v>
+        <v>31734.08161115618</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>22474.84053189551</v>
       </c>
       <c r="E41">
-        <v>31734.08161115619</v>
+        <v>31734.08161115618</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>11551.99862509063</v>
+        <v>11551.99862509062</v>
       </c>
       <c r="C42">
         <v>14318.68310983797</v>
@@ -1077,7 +1077,7 @@
         <v>20284.79416619084</v>
       </c>
       <c r="E42">
-        <v>29726.92761404076</v>
+        <v>29726.92761404075</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>11551.99862509063</v>
+        <v>11551.99862509062</v>
       </c>
       <c r="C43">
         <v>14318.68310983797</v>
@@ -1094,7 +1094,7 @@
         <v>20284.79416619084</v>
       </c>
       <c r="E43">
-        <v>29726.92761404076</v>
+        <v>29726.92761404075</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1108,7 +1108,7 @@
         <v>10657.62313940475</v>
       </c>
       <c r="D44">
-        <v>15513.25219910672</v>
+        <v>15513.25219910671</v>
       </c>
       <c r="E44">
         <v>23087.12048090657</v>
@@ -1128,7 +1128,7 @@
         <v>19397.32113166964</v>
       </c>
       <c r="E45">
-        <v>28977.63089060101</v>
+        <v>28977.63089060099</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>15166.99523836013</v>
       </c>
       <c r="D47">
-        <v>21955.02499380954</v>
+        <v>21955.02499380953</v>
       </c>
       <c r="E47">
-        <v>31921.375317798</v>
+        <v>31921.37531779802</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>19397.32113166964</v>
       </c>
       <c r="E48">
-        <v>28977.63089060101</v>
+        <v>28977.63089060099</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1187,7 +1187,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7581.054806270368</v>
+        <v>7581.054806270369</v>
       </c>
       <c r="C49">
         <v>9820.627110826883</v>
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>10724.01229663835</v>
+        <v>10724.01229663836</v>
       </c>
       <c r="C50">
         <v>13838.75830426469</v>
       </c>
       <c r="D50">
-        <v>17844.92360727502</v>
+        <v>17844.92360727501</v>
       </c>
       <c r="E50">
         <v>20810.90869427245</v>
@@ -1224,13 +1224,13 @@
         <v>4446.465206913392</v>
       </c>
       <c r="C51">
-        <v>5546.137919290503</v>
+        <v>5546.137919290504</v>
       </c>
       <c r="D51">
-        <v>7329.59859253627</v>
+        <v>7329.598592536269</v>
       </c>
       <c r="E51">
-        <v>8147.833316775086</v>
+        <v>8147.833316775088</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1244,10 +1244,10 @@
         <v>5381.651449011812</v>
       </c>
       <c r="D52">
-        <v>7000.864091278713</v>
+        <v>7000.864091278714</v>
       </c>
       <c r="E52">
-        <v>7506.625057453972</v>
+        <v>7506.625057453975</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5125.926662579194</v>
+        <v>5125.926662579196</v>
       </c>
       <c r="C53">
-        <v>6587.156178716011</v>
+        <v>6587.15617871601</v>
       </c>
       <c r="D53">
-        <v>8959.154163551353</v>
+        <v>8959.154163551357</v>
       </c>
       <c r="E53">
         <v>10416.67654363924</v>
@@ -1275,13 +1275,13 @@
         <v>4446.465206913392</v>
       </c>
       <c r="C54">
-        <v>5546.137919290503</v>
+        <v>5546.137919290504</v>
       </c>
       <c r="D54">
-        <v>7329.59859253627</v>
+        <v>7329.598592536269</v>
       </c>
       <c r="E54">
-        <v>8147.833316775086</v>
+        <v>8147.833316775088</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>10724.01229663835</v>
+        <v>10724.01229663836</v>
       </c>
       <c r="C55">
         <v>13838.75830426469</v>
       </c>
       <c r="D55">
-        <v>17844.92360727502</v>
+        <v>17844.92360727501</v>
       </c>
       <c r="E55">
         <v>20810.90869427245</v>
@@ -1309,13 +1309,13 @@
         <v>5225.701386766367</v>
       </c>
       <c r="C56">
-        <v>6602.370318684546</v>
+        <v>6602.370318684547</v>
       </c>
       <c r="D56">
         <v>8826.307073439544</v>
       </c>
       <c r="E56">
-        <v>10114.2298437896</v>
+        <v>10114.22984378961</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>3810.382663355062</v>
       </c>
       <c r="C57">
-        <v>4606.541876251061</v>
+        <v>4606.54187625106</v>
       </c>
       <c r="D57">
-        <v>5830.049788108415</v>
+        <v>5830.049788108413</v>
       </c>
       <c r="E57">
-        <v>6405.52140435888</v>
+        <v>6405.521404358879</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>4683.309689585388</v>
+        <v>4683.30968958539</v>
       </c>
       <c r="C58">
-        <v>5697.536377472121</v>
+        <v>5697.53637747212</v>
       </c>
       <c r="D58">
-        <v>7085.713872055695</v>
+        <v>7085.713872055693</v>
       </c>
       <c r="E58">
-        <v>7554.290371877452</v>
+        <v>7554.290371877451</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4683.309689585388</v>
+        <v>4683.30968958539</v>
       </c>
       <c r="C59">
-        <v>5697.536377472121</v>
+        <v>5697.53637747212</v>
       </c>
       <c r="D59">
-        <v>7085.713872055695</v>
+        <v>7085.713872055693</v>
       </c>
       <c r="E59">
-        <v>7554.290371877452</v>
+        <v>7554.290371877451</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1377,13 +1377,13 @@
         <v>3245.347509836221</v>
       </c>
       <c r="C60">
-        <v>4061.952556993378</v>
+        <v>4061.952556993377</v>
       </c>
       <c r="D60">
         <v>5201.916790674059</v>
       </c>
       <c r="E60">
-        <v>5793.224692891189</v>
+        <v>5793.224692891192</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>3245.347509836221</v>
       </c>
       <c r="C61">
-        <v>4061.952556993378</v>
+        <v>4061.952556993377</v>
       </c>
       <c r="D61">
         <v>5201.916790674059</v>
       </c>
       <c r="E61">
-        <v>5793.224692891189</v>
+        <v>5793.224692891192</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>2479.81365489349</v>
       </c>
       <c r="E62">
-        <v>2652.242976259146</v>
+        <v>2652.242976259147</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>2479.81365489349</v>
       </c>
       <c r="E63">
-        <v>2652.242976259146</v>
+        <v>2652.242976259147</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>703.280591982823</v>
+        <v>703.2805919828231</v>
       </c>
       <c r="C64">
         <v>1067.990719552575</v>
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>703.280591982823</v>
+        <v>703.2805919828231</v>
       </c>
       <c r="C65">
         <v>1067.990719552575</v>
@@ -1482,10 +1482,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D66">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E66">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1499,10 +1499,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D67">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E67">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1516,10 +1516,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D68">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E68">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1533,10 +1533,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D69">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E69">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1550,10 +1550,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D70">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E70">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1567,7 +1567,7 @@
         <v>12226.94322376265</v>
       </c>
       <c r="D71">
-        <v>18221.80217246307</v>
+        <v>18221.80217246308</v>
       </c>
       <c r="E71">
         <v>26039.9234431112</v>
@@ -1584,10 +1584,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D72">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E72">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1601,10 +1601,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D73">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E73">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D74">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E74">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,10 +1629,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4146.616534150327</v>
+        <v>4146.616534150326</v>
       </c>
       <c r="C75">
-        <v>5474.134708147972</v>
+        <v>5474.134708147973</v>
       </c>
       <c r="D75">
         <v>8510.597696952547</v>
@@ -1652,10 +1652,10 @@
         <v>10961.43870304826</v>
       </c>
       <c r="D76">
-        <v>16393.12426215107</v>
+        <v>16393.12426215106</v>
       </c>
       <c r="E76">
-        <v>23406.86518374864</v>
+        <v>23406.86518374865</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1768,13 +1768,13 @@
         <v>2903.801326344666</v>
       </c>
       <c r="C83">
-        <v>3763.141788594647</v>
+        <v>3763.141788594646</v>
       </c>
       <c r="D83">
         <v>5810.22769420295</v>
       </c>
       <c r="E83">
-        <v>9016.082862939062</v>
+        <v>9016.08286293906</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1785,13 +1785,13 @@
         <v>2903.801326344666</v>
       </c>
       <c r="C84">
-        <v>3763.141788594647</v>
+        <v>3763.141788594646</v>
       </c>
       <c r="D84">
         <v>5810.22769420295</v>
       </c>
       <c r="E84">
-        <v>9016.082862939062</v>
+        <v>9016.08286293906</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4253.175914517293</v>
+        <v>4253.175914517292</v>
       </c>
       <c r="C85">
-        <v>5067.494804766241</v>
+        <v>5067.49480476624</v>
       </c>
       <c r="D85">
-        <v>7270.323216196979</v>
+        <v>7270.32321619698</v>
       </c>
       <c r="E85">
         <v>11187.37287123669</v>
@@ -1816,13 +1816,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>4253.175914517293</v>
+        <v>4253.175914517292</v>
       </c>
       <c r="C86">
-        <v>5067.494804766241</v>
+        <v>5067.49480476624</v>
       </c>
       <c r="D86">
-        <v>7270.323216196979</v>
+        <v>7270.32321619698</v>
       </c>
       <c r="E86">
         <v>11187.37287123669</v>
@@ -1833,16 +1833,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1506.642807736767</v>
+        <v>1506.642807736768</v>
       </c>
       <c r="C87">
-        <v>1941.986913780345</v>
+        <v>1941.986913780344</v>
       </c>
       <c r="D87">
-        <v>3352.396383528587</v>
+        <v>3352.396383528585</v>
       </c>
       <c r="E87">
-        <v>5431.650601411142</v>
+        <v>5431.65060141114</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1506.642807736767</v>
+        <v>1506.642807736768</v>
       </c>
       <c r="C88">
-        <v>1941.986913780345</v>
+        <v>1941.986913780344</v>
       </c>
       <c r="D88">
-        <v>3352.396383528587</v>
+        <v>3352.396383528585</v>
       </c>
       <c r="E88">
-        <v>5431.650601411142</v>
+        <v>5431.65060141114</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1506.642807736767</v>
+        <v>1506.642807736768</v>
       </c>
       <c r="C89">
-        <v>1941.986913780345</v>
+        <v>1941.986913780344</v>
       </c>
       <c r="D89">
-        <v>3352.396383528587</v>
+        <v>3352.396383528585</v>
       </c>
       <c r="E89">
-        <v>5431.650601411142</v>
+        <v>5431.65060141114</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1887,10 +1887,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C90">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D90">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E90">
         <v>62481.00866076422</v>
@@ -1904,10 +1904,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C91">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D91">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E91">
         <v>62481.00866076422</v>
@@ -1921,10 +1921,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C92">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D92">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E92">
         <v>62481.00866076422</v>
@@ -1938,10 +1938,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C93">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D93">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E93">
         <v>62481.00866076422</v>
@@ -1952,13 +1952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>38768.08920263551</v>
+        <v>38768.0892026355</v>
       </c>
       <c r="C94">
-        <v>42059.47694702983</v>
+        <v>42059.47694702985</v>
       </c>
       <c r="D94">
-        <v>48584.25076202778</v>
+        <v>48584.25076202777</v>
       </c>
       <c r="E94">
         <v>59749.40087135842</v>
@@ -1972,10 +1972,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C95">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D95">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E95">
         <v>62481.00866076422</v>
@@ -1989,10 +1989,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C96">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D96">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E96">
         <v>62481.00866076422</v>
@@ -2006,10 +2006,10 @@
         <v>40384.9296501295</v>
       </c>
       <c r="C97">
-        <v>43525.54754011246</v>
+        <v>43525.54754011245</v>
       </c>
       <c r="D97">
-        <v>50500.79729485388</v>
+        <v>50500.79729485386</v>
       </c>
       <c r="E97">
         <v>62481.00866076422</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>35969.5802773872</v>
+        <v>35969.58027738721</v>
       </c>
       <c r="C98">
-        <v>38736.75137586409</v>
+        <v>38736.75137586407</v>
       </c>
       <c r="D98">
         <v>45198.53648532034</v>
       </c>
       <c r="E98">
-        <v>56439.67244076804</v>
+        <v>56439.67244076806</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>35969.5802773872</v>
+        <v>35969.58027738721</v>
       </c>
       <c r="C99">
-        <v>38736.75137586409</v>
+        <v>38736.75137586407</v>
       </c>
       <c r="D99">
         <v>45198.53648532034</v>
       </c>
       <c r="E99">
-        <v>56439.67244076804</v>
+        <v>56439.67244076806</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2057,10 +2057,10 @@
         <v>34828.92602229259</v>
       </c>
       <c r="C100">
-        <v>37452.41817424095</v>
+        <v>37452.41817424096</v>
       </c>
       <c r="D100">
-        <v>43882.14252928115</v>
+        <v>43882.14252928117</v>
       </c>
       <c r="E100">
         <v>55303.75238244463</v>
@@ -2074,10 +2074,10 @@
         <v>34828.92602229259</v>
       </c>
       <c r="C101">
-        <v>37452.41817424095</v>
+        <v>37452.41817424096</v>
       </c>
       <c r="D101">
-        <v>43882.14252928115</v>
+        <v>43882.14252928117</v>
       </c>
       <c r="E101">
         <v>55303.75238244463</v>
@@ -2091,10 +2091,10 @@
         <v>34828.92602229259</v>
       </c>
       <c r="C102">
-        <v>37452.41817424095</v>
+        <v>37452.41817424096</v>
       </c>
       <c r="D102">
-        <v>43882.14252928115</v>
+        <v>43882.14252928117</v>
       </c>
       <c r="E102">
         <v>55303.75238244463</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>31198.43522230798</v>
+        <v>31198.435222308</v>
       </c>
       <c r="C103">
-        <v>33752.20308964828</v>
+        <v>33752.20308964829</v>
       </c>
       <c r="D103">
-        <v>39794.4004600714</v>
+        <v>39794.40046007139</v>
       </c>
       <c r="E103">
-        <v>50008.56242225198</v>
+        <v>50008.56242225199</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>31198.43522230798</v>
+        <v>31198.435222308</v>
       </c>
       <c r="C104">
-        <v>33752.20308964828</v>
+        <v>33752.20308964829</v>
       </c>
       <c r="D104">
-        <v>39794.4004600714</v>
+        <v>39794.40046007139</v>
       </c>
       <c r="E104">
-        <v>50008.56242225198</v>
+        <v>50008.56242225199</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>33094.85188938237</v>
+        <v>33094.85188938236</v>
       </c>
       <c r="C105">
-        <v>35640.79319247969</v>
+        <v>35640.7931924797</v>
       </c>
       <c r="D105">
         <v>41834.31818402258</v>
       </c>
       <c r="E105">
-        <v>52499.61054243241</v>
+        <v>52499.6105424324</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2156,16 +2156,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>31198.43522230798</v>
+        <v>31198.435222308</v>
       </c>
       <c r="C106">
-        <v>33752.20308964828</v>
+        <v>33752.20308964829</v>
       </c>
       <c r="D106">
-        <v>39794.4004600714</v>
+        <v>39794.40046007139</v>
       </c>
       <c r="E106">
-        <v>50008.56242225198</v>
+        <v>50008.56242225199</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>31198.43522230798</v>
+        <v>31198.435222308</v>
       </c>
       <c r="C107">
-        <v>33752.20308964828</v>
+        <v>33752.20308964829</v>
       </c>
       <c r="D107">
-        <v>39794.4004600714</v>
+        <v>39794.40046007139</v>
       </c>
       <c r="E107">
-        <v>50008.56242225198</v>
+        <v>50008.56242225199</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>33094.85188938237</v>
+        <v>33094.85188938236</v>
       </c>
       <c r="C108">
-        <v>35640.79319247969</v>
+        <v>35640.7931924797</v>
       </c>
       <c r="D108">
         <v>41834.31818402258</v>
       </c>
       <c r="E108">
-        <v>52499.61054243241</v>
+        <v>52499.6105424324</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2210,10 +2210,10 @@
         <v>29788.24240160028</v>
       </c>
       <c r="C109">
-        <v>32431.10660724762</v>
+        <v>32431.10660724764</v>
       </c>
       <c r="D109">
-        <v>38367.78852664004</v>
+        <v>38367.78852664003</v>
       </c>
       <c r="E109">
         <v>48114.31436776501</v>
@@ -2227,10 +2227,10 @@
         <v>29788.24240160028</v>
       </c>
       <c r="C110">
-        <v>32431.10660724762</v>
+        <v>32431.10660724764</v>
       </c>
       <c r="D110">
-        <v>38367.78852664004</v>
+        <v>38367.78852664003</v>
       </c>
       <c r="E110">
         <v>48114.31436776501</v>
@@ -2244,10 +2244,10 @@
         <v>29788.24240160028</v>
       </c>
       <c r="C111">
-        <v>32431.10660724762</v>
+        <v>32431.10660724764</v>
       </c>
       <c r="D111">
-        <v>38367.78852664004</v>
+        <v>38367.78852664003</v>
       </c>
       <c r="E111">
         <v>48114.31436776501</v>
@@ -2258,16 +2258,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>31407.57154985212</v>
+        <v>31407.57154985211</v>
       </c>
       <c r="C112">
         <v>34034.37577398223</v>
       </c>
       <c r="D112">
-        <v>40144.52208576054</v>
+        <v>40144.52208576052</v>
       </c>
       <c r="E112">
-        <v>50442.1333728527</v>
+        <v>50442.13337285267</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,7 +2275,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>28731.9677698785</v>
+        <v>28731.96776987849</v>
       </c>
       <c r="C113">
         <v>31327.43221068658</v>
@@ -2292,7 +2292,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>28731.9677698785</v>
+        <v>28731.96776987849</v>
       </c>
       <c r="C114">
         <v>31327.43221068658</v>
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>31407.57154985212</v>
+        <v>31407.57154985211</v>
       </c>
       <c r="C115">
         <v>34034.37577398223</v>
       </c>
       <c r="D115">
-        <v>40144.52208576054</v>
+        <v>40144.52208576052</v>
       </c>
       <c r="E115">
-        <v>50442.1333728527</v>
+        <v>50442.13337285267</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>31407.57154985212</v>
+        <v>31407.57154985211</v>
       </c>
       <c r="C116">
         <v>34034.37577398223</v>
       </c>
       <c r="D116">
-        <v>40144.52208576054</v>
+        <v>40144.52208576052</v>
       </c>
       <c r="E116">
-        <v>50442.1333728527</v>
+        <v>50442.13337285267</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>28731.9677698785</v>
+        <v>28731.96776987849</v>
       </c>
       <c r="C117">
         <v>31327.43221068658</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>28731.9677698785</v>
+        <v>28731.96776987849</v>
       </c>
       <c r="C118">
         <v>31327.43221068658</v>
@@ -2377,16 +2377,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>25038.80194740702</v>
+        <v>25038.80194740703</v>
       </c>
       <c r="C119">
-        <v>27609.28990934744</v>
+        <v>27609.28990934745</v>
       </c>
       <c r="D119">
-        <v>33285.07665123308</v>
+        <v>33285.07665123307</v>
       </c>
       <c r="E119">
-        <v>42284.29641292742</v>
+        <v>42284.29641292741</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,7 +2394,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>35776.81014993661</v>
+        <v>35776.81014993663</v>
       </c>
       <c r="C120">
         <v>38532.76290458793</v>
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>35776.81014993661</v>
+        <v>35776.81014993663</v>
       </c>
       <c r="C121">
         <v>38532.76290458793</v>
@@ -2437,7 +2437,7 @@
         <v>37968.86227448143</v>
       </c>
       <c r="E122">
-        <v>47821.96537305463</v>
+        <v>47821.96537305461</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2454,7 +2454,7 @@
         <v>37968.86227448143</v>
       </c>
       <c r="E123">
-        <v>47821.96537305463</v>
+        <v>47821.96537305461</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2471,7 +2471,7 @@
         <v>37968.86227448143</v>
       </c>
       <c r="E124">
-        <v>47821.96537305463</v>
+        <v>47821.96537305461</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>27104.11662592654</v>
+        <v>27104.11662592653</v>
       </c>
       <c r="C125">
-        <v>29587.56314375849</v>
+        <v>29587.56314375847</v>
       </c>
       <c r="D125">
         <v>35419.10141406654</v>
       </c>
       <c r="E125">
-        <v>44996.98670459882</v>
+        <v>44996.98670459881</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>27104.11662592654</v>
+        <v>27104.11662592653</v>
       </c>
       <c r="C126">
-        <v>29587.56314375849</v>
+        <v>29587.56314375847</v>
       </c>
       <c r="D126">
         <v>35419.10141406654</v>
       </c>
       <c r="E126">
-        <v>44996.98670459882</v>
+        <v>44996.98670459881</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2513,16 +2513,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>28327.64189813295</v>
+        <v>28327.64189813294</v>
       </c>
       <c r="C127">
-        <v>30909.10901533648</v>
+        <v>30909.10901533649</v>
       </c>
       <c r="D127">
-        <v>36353.04758596153</v>
+        <v>36353.0475859615</v>
       </c>
       <c r="E127">
-        <v>45204.30494456292</v>
+        <v>45204.30494456289</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2530,10 +2530,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C128">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D128">
         <v>40950.10280531392</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C129">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D129">
         <v>40950.10280531392</v>
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>36234.13162687439</v>
+        <v>36234.13162687438</v>
       </c>
       <c r="C130">
-        <v>39069.94447293856</v>
+        <v>39069.94447293859</v>
       </c>
       <c r="D130">
         <v>45535.70650730193</v>
       </c>
       <c r="E130">
-        <v>57242.1033823488</v>
+        <v>57242.10338234881</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>36234.13162687439</v>
+        <v>36234.13162687438</v>
       </c>
       <c r="C131">
-        <v>39069.94447293856</v>
+        <v>39069.94447293859</v>
       </c>
       <c r="D131">
         <v>45535.70650730193</v>
       </c>
       <c r="E131">
-        <v>57242.1033823488</v>
+        <v>57242.10338234881</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>36234.13162687439</v>
+        <v>36234.13162687438</v>
       </c>
       <c r="C132">
-        <v>39069.94447293856</v>
+        <v>39069.94447293859</v>
       </c>
       <c r="D132">
         <v>45535.70650730193</v>
       </c>
       <c r="E132">
-        <v>57242.1033823488</v>
+        <v>57242.10338234881</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,16 +2615,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>36234.13162687439</v>
+        <v>36234.13162687438</v>
       </c>
       <c r="C133">
-        <v>39069.94447293856</v>
+        <v>39069.94447293859</v>
       </c>
       <c r="D133">
         <v>45535.70650730193</v>
       </c>
       <c r="E133">
-        <v>57242.1033823488</v>
+        <v>57242.10338234881</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2632,13 +2632,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>38768.08920263551</v>
+        <v>38768.0892026355</v>
       </c>
       <c r="C134">
-        <v>42059.47694702983</v>
+        <v>42059.47694702985</v>
       </c>
       <c r="D134">
-        <v>48584.25076202778</v>
+        <v>48584.25076202777</v>
       </c>
       <c r="E134">
         <v>59749.40087135842</v>
@@ -2649,7 +2649,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>35667.07634912482</v>
+        <v>35667.0763491248</v>
       </c>
       <c r="C135">
         <v>38556.1546294138</v>
@@ -2666,16 +2666,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>33646.46417018335</v>
+        <v>33646.46417018336</v>
       </c>
       <c r="C136">
-        <v>36325.19101071906</v>
+        <v>36325.19101071904</v>
       </c>
       <c r="D136">
-        <v>42385.85432839345</v>
+        <v>42385.85432839344</v>
       </c>
       <c r="E136">
-        <v>53591.26214154919</v>
+        <v>53591.26214154917</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2683,16 +2683,16 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>33646.46417018335</v>
+        <v>33646.46417018336</v>
       </c>
       <c r="C137">
-        <v>36325.19101071906</v>
+        <v>36325.19101071904</v>
       </c>
       <c r="D137">
-        <v>42385.85432839345</v>
+        <v>42385.85432839344</v>
       </c>
       <c r="E137">
-        <v>53591.26214154919</v>
+        <v>53591.26214154917</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2700,16 +2700,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>33646.46417018335</v>
+        <v>33646.46417018336</v>
       </c>
       <c r="C138">
-        <v>36325.19101071906</v>
+        <v>36325.19101071904</v>
       </c>
       <c r="D138">
-        <v>42385.85432839345</v>
+        <v>42385.85432839344</v>
       </c>
       <c r="E138">
-        <v>53591.26214154919</v>
+        <v>53591.26214154917</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>34706.07381694261</v>
+        <v>34706.0738169426</v>
       </c>
       <c r="C139">
-        <v>37534.42331033868</v>
+        <v>37534.4233103387</v>
       </c>
       <c r="D139">
-        <v>43562.60111737393</v>
+        <v>43562.60111737392</v>
       </c>
       <c r="E139">
-        <v>54519.95624989281</v>
+        <v>54519.95624989279</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>25782.67894070471</v>
       </c>
       <c r="C140">
-        <v>28372.26864197399</v>
+        <v>28372.26864197398</v>
       </c>
       <c r="D140">
         <v>33332.11783626452</v>
       </c>
       <c r="E140">
-        <v>42441.84175043081</v>
+        <v>42441.8417504308</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2751,16 +2751,16 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>34706.07381694261</v>
+        <v>34706.0738169426</v>
       </c>
       <c r="C141">
-        <v>37534.42331033868</v>
+        <v>37534.4233103387</v>
       </c>
       <c r="D141">
-        <v>43562.60111737393</v>
+        <v>43562.60111737392</v>
       </c>
       <c r="E141">
-        <v>54519.95624989281</v>
+        <v>54519.95624989279</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>34706.07381694261</v>
+        <v>34706.0738169426</v>
       </c>
       <c r="C142">
-        <v>37534.42331033868</v>
+        <v>37534.4233103387</v>
       </c>
       <c r="D142">
-        <v>43562.60111737393</v>
+        <v>43562.60111737392</v>
       </c>
       <c r="E142">
-        <v>54519.95624989281</v>
+        <v>54519.95624989279</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,10 +2785,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C143">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D143">
         <v>40950.10280531392</v>
@@ -2802,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C144">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D144">
         <v>40950.10280531392</v>
@@ -2819,10 +2819,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C145">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D145">
         <v>40950.10280531392</v>
@@ -2836,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>32179.21080880608</v>
+        <v>32179.21080880609</v>
       </c>
       <c r="C146">
-        <v>35095.18626393853</v>
+        <v>35095.18626393852</v>
       </c>
       <c r="D146">
         <v>40950.10280531392</v>
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>28841.68713989181</v>
+        <v>28841.68713989179</v>
       </c>
       <c r="C147">
-        <v>31812.68296482305</v>
+        <v>31812.68296482303</v>
       </c>
       <c r="D147">
-        <v>37498.10555814337</v>
+        <v>37498.10555814336</v>
       </c>
       <c r="E147">
-        <v>47070.80822220867</v>
+        <v>47070.80822220869</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>28841.68713989181</v>
+        <v>28841.68713989179</v>
       </c>
       <c r="C148">
-        <v>31812.68296482305</v>
+        <v>31812.68296482303</v>
       </c>
       <c r="D148">
-        <v>37498.10555814337</v>
+        <v>37498.10555814336</v>
       </c>
       <c r="E148">
-        <v>47070.80822220867</v>
+        <v>47070.80822220869</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2896,7 +2896,7 @@
         <v>41181.71057990924</v>
       </c>
       <c r="E149">
-        <v>51423.34561940498</v>
+        <v>51423.34561940501</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>41181.71057990924</v>
       </c>
       <c r="E150">
-        <v>51423.34561940498</v>
+        <v>51423.34561940501</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>41181.71057990924</v>
       </c>
       <c r="E151">
-        <v>51423.34561940498</v>
+        <v>51423.34561940501</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>41181.71057990924</v>
       </c>
       <c r="E152">
-        <v>51423.34561940498</v>
+        <v>51423.34561940501</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2955,13 +2955,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>25088.57875707526</v>
+        <v>25088.57875707525</v>
       </c>
       <c r="C153">
-        <v>27302.7595357225</v>
+        <v>27302.75953572251</v>
       </c>
       <c r="D153">
-        <v>31876.19172051669</v>
+        <v>31876.19172051668</v>
       </c>
       <c r="E153">
         <v>40734.62644862293</v>
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>25088.57875707526</v>
+        <v>25088.57875707525</v>
       </c>
       <c r="C154">
-        <v>27302.7595357225</v>
+        <v>27302.75953572251</v>
       </c>
       <c r="D154">
-        <v>31876.19172051669</v>
+        <v>31876.19172051668</v>
       </c>
       <c r="E154">
         <v>40734.62644862293</v>
@@ -2995,10 +2995,10 @@
         <v>24717.21005691247</v>
       </c>
       <c r="D155">
-        <v>30173.59351527939</v>
+        <v>30173.59351527938</v>
       </c>
       <c r="E155">
-        <v>39123.24033865536</v>
+        <v>39123.24033865538</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3012,10 +3012,10 @@
         <v>24717.21005691247</v>
       </c>
       <c r="D156">
-        <v>30173.59351527939</v>
+        <v>30173.59351527938</v>
       </c>
       <c r="E156">
-        <v>39123.24033865536</v>
+        <v>39123.24033865538</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3029,10 +3029,10 @@
         <v>24717.21005691247</v>
       </c>
       <c r="D157">
-        <v>30173.59351527939</v>
+        <v>30173.59351527938</v>
       </c>
       <c r="E157">
-        <v>39123.24033865536</v>
+        <v>39123.24033865538</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3040,16 +3040,16 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>29698.84875323675</v>
+        <v>29698.84875323674</v>
       </c>
       <c r="C158">
         <v>32648.21755980455</v>
       </c>
       <c r="D158">
-        <v>38458.30633604256</v>
+        <v>38458.30633604258</v>
       </c>
       <c r="E158">
-        <v>48359.16917538767</v>
+        <v>48359.16917538766</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3057,16 +3057,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>29698.84875323675</v>
+        <v>29698.84875323674</v>
       </c>
       <c r="C159">
         <v>32648.21755980455</v>
       </c>
       <c r="D159">
-        <v>38458.30633604256</v>
+        <v>38458.30633604258</v>
       </c>
       <c r="E159">
-        <v>48359.16917538767</v>
+        <v>48359.16917538766</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>32641.0192974895</v>
       </c>
       <c r="E161">
-        <v>41666.55974466572</v>
+        <v>41666.55974466573</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3131,10 +3131,10 @@
         <v>33906.93868760545</v>
       </c>
       <c r="D163">
-        <v>40004.98866359351</v>
+        <v>40004.98866359352</v>
       </c>
       <c r="E163">
-        <v>49851.01320552285</v>
+        <v>49851.01320552286</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3148,10 +3148,10 @@
         <v>33906.93868760545</v>
       </c>
       <c r="D164">
-        <v>40004.98866359351</v>
+        <v>40004.98866359352</v>
       </c>
       <c r="E164">
-        <v>49851.01320552285</v>
+        <v>49851.01320552286</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,13 +3159,13 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>26191.44285527627</v>
+        <v>26191.44285527628</v>
       </c>
       <c r="C165">
-        <v>29225.89115991814</v>
+        <v>29225.89115991813</v>
       </c>
       <c r="D165">
-        <v>35181.72699085771</v>
+        <v>35181.72699085772</v>
       </c>
       <c r="E165">
         <v>44398.64469866308</v>
@@ -3176,13 +3176,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>26191.44285527627</v>
+        <v>26191.44285527628</v>
       </c>
       <c r="C166">
-        <v>29225.89115991814</v>
+        <v>29225.89115991813</v>
       </c>
       <c r="D166">
-        <v>35181.72699085771</v>
+        <v>35181.72699085772</v>
       </c>
       <c r="E166">
         <v>44398.64469866308</v>
@@ -3193,13 +3193,13 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>25103.84356248485</v>
+        <v>25103.84356248484</v>
       </c>
       <c r="C167">
-        <v>27869.74572359031</v>
+        <v>27869.7457235903</v>
       </c>
       <c r="D167">
-        <v>33493.11211155232</v>
+        <v>33493.11211155231</v>
       </c>
       <c r="E167">
         <v>43089.58715447459</v>
@@ -3210,13 +3210,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>25103.84356248485</v>
+        <v>25103.84356248484</v>
       </c>
       <c r="C168">
-        <v>27869.74572359031</v>
+        <v>27869.7457235903</v>
       </c>
       <c r="D168">
-        <v>33493.11211155232</v>
+        <v>33493.11211155231</v>
       </c>
       <c r="E168">
         <v>43089.58715447459</v>
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>35161.92616848601</v>
+        <v>35161.926168486</v>
       </c>
       <c r="C169">
         <v>37874.4304391668</v>
@@ -3236,7 +3236,7 @@
         <v>44460.2253267335</v>
       </c>
       <c r="E169">
-        <v>56230.46638037432</v>
+        <v>56230.46638037435</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3247,13 +3247,13 @@
         <v>34071.96921970609</v>
       </c>
       <c r="C170">
-        <v>36700.86112899423</v>
+        <v>36700.86112899425</v>
       </c>
       <c r="D170">
-        <v>43193.58591251991</v>
+        <v>43193.5859125199</v>
       </c>
       <c r="E170">
-        <v>55103.11293165889</v>
+        <v>55103.11293165894</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,7 +3261,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>35161.92616848601</v>
+        <v>35161.926168486</v>
       </c>
       <c r="C171">
         <v>37874.4304391668</v>
@@ -3270,7 +3270,7 @@
         <v>44460.2253267335</v>
       </c>
       <c r="E171">
-        <v>56230.46638037432</v>
+        <v>56230.46638037435</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3281,13 +3281,13 @@
         <v>34071.96921970609</v>
       </c>
       <c r="C172">
-        <v>36700.86112899423</v>
+        <v>36700.86112899425</v>
       </c>
       <c r="D172">
-        <v>43193.58591251991</v>
+        <v>43193.5859125199</v>
       </c>
       <c r="E172">
-        <v>55103.11293165889</v>
+        <v>55103.11293165894</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3298,13 +3298,13 @@
         <v>34071.96921970609</v>
       </c>
       <c r="C173">
-        <v>36700.86112899423</v>
+        <v>36700.86112899425</v>
       </c>
       <c r="D173">
-        <v>43193.58591251991</v>
+        <v>43193.5859125199</v>
       </c>
       <c r="E173">
-        <v>55103.11293165889</v>
+        <v>55103.11293165894</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,13 +3315,13 @@
         <v>36768.99509038069</v>
       </c>
       <c r="C174">
-        <v>39821.58455370405</v>
+        <v>39821.58455370406</v>
       </c>
       <c r="D174">
-        <v>46663.86847521795</v>
+        <v>46663.86847521794</v>
       </c>
       <c r="E174">
-        <v>59019.64055511107</v>
+        <v>59019.64055511109</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3332,13 +3332,13 @@
         <v>29788.68513572363</v>
       </c>
       <c r="C175">
-        <v>32643.8377845625</v>
+        <v>32643.83778456251</v>
       </c>
       <c r="D175">
-        <v>39296.81558813348</v>
+        <v>39296.81558813349</v>
       </c>
       <c r="E175">
-        <v>51271.18724452674</v>
+        <v>51271.18724452671</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3349,13 +3349,13 @@
         <v>29788.68513572363</v>
       </c>
       <c r="C176">
-        <v>32643.8377845625</v>
+        <v>32643.83778456251</v>
       </c>
       <c r="D176">
-        <v>39296.81558813348</v>
+        <v>39296.81558813349</v>
       </c>
       <c r="E176">
-        <v>51271.18724452674</v>
+        <v>51271.18724452671</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>29788.68513572363</v>
       </c>
       <c r="C177">
-        <v>32643.8377845625</v>
+        <v>32643.83778456251</v>
       </c>
       <c r="D177">
-        <v>39296.81558813348</v>
+        <v>39296.81558813349</v>
       </c>
       <c r="E177">
-        <v>51271.18724452674</v>
+        <v>51271.18724452671</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3380,16 +3380,16 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>31549.55533361564</v>
+        <v>31549.55533361565</v>
       </c>
       <c r="C178">
-        <v>34342.5413024145</v>
+        <v>34342.54130241452</v>
       </c>
       <c r="D178">
         <v>40662.14804781407</v>
       </c>
       <c r="E178">
-        <v>52367.76963142275</v>
+        <v>52367.76963142274</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3397,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>31257.90070661577</v>
+        <v>31257.90070661578</v>
       </c>
       <c r="C179">
         <v>33756.41697671444</v>
@@ -3406,7 +3406,7 @@
         <v>39588.25541289626</v>
       </c>
       <c r="E179">
-        <v>50835.48573223393</v>
+        <v>50835.4857322339</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>31257.90070661577</v>
+        <v>31257.90070661578</v>
       </c>
       <c r="C180">
         <v>33756.41697671444</v>
@@ -3423,7 +3423,7 @@
         <v>39588.25541289626</v>
       </c>
       <c r="E180">
-        <v>50835.48573223393</v>
+        <v>50835.4857322339</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>31257.90070661577</v>
+        <v>31257.90070661578</v>
       </c>
       <c r="C181">
         <v>33756.41697671444</v>
@@ -3440,7 +3440,7 @@
         <v>39588.25541289626</v>
       </c>
       <c r="E181">
-        <v>50835.48573223393</v>
+        <v>50835.4857322339</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3457,7 +3457,7 @@
         <v>30071.25953926842</v>
       </c>
       <c r="E182">
-        <v>39113.05638391604</v>
+        <v>39113.05638391607</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3474,7 +3474,7 @@
         <v>25011.25429967749</v>
       </c>
       <c r="E183">
-        <v>33930.75034611556</v>
+        <v>33930.75034611557</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3485,13 +3485,13 @@
         <v>25483.23260039454</v>
       </c>
       <c r="C184">
-        <v>28446.33001542939</v>
+        <v>28446.3300154294</v>
       </c>
       <c r="D184">
-        <v>35000.23584570543</v>
+        <v>35000.23584570544</v>
       </c>
       <c r="E184">
-        <v>46549.8899326459</v>
+        <v>46549.88993264589</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3502,13 +3502,13 @@
         <v>25483.23260039454</v>
       </c>
       <c r="C185">
-        <v>28446.33001542939</v>
+        <v>28446.3300154294</v>
       </c>
       <c r="D185">
-        <v>35000.23584570543</v>
+        <v>35000.23584570544</v>
       </c>
       <c r="E185">
-        <v>46549.8899326459</v>
+        <v>46549.88993264589</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3516,7 +3516,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>25757.19421098841</v>
+        <v>25757.19421098842</v>
       </c>
       <c r="C186">
         <v>28066.30185172203</v>
@@ -3525,7 +3525,7 @@
         <v>33794.98988499124</v>
       </c>
       <c r="E186">
-        <v>44587.77546151394</v>
+        <v>44587.77546151396</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3533,7 +3533,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>25757.19421098841</v>
+        <v>25757.19421098842</v>
       </c>
       <c r="C187">
         <v>28066.30185172203</v>
@@ -3542,7 +3542,7 @@
         <v>33794.98988499124</v>
       </c>
       <c r="E187">
-        <v>44587.77546151394</v>
+        <v>44587.77546151396</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>23765.82296370319</v>
       </c>
       <c r="D188">
-        <v>29172.16259681795</v>
+        <v>29172.16259681793</v>
       </c>
       <c r="E188">
         <v>39096.4214999325</v>
@@ -3573,7 +3573,7 @@
         <v>23765.82296370319</v>
       </c>
       <c r="D189">
-        <v>29172.16259681795</v>
+        <v>29172.16259681793</v>
       </c>
       <c r="E189">
         <v>39096.4214999325</v>
@@ -3590,7 +3590,7 @@
         <v>23765.82296370319</v>
       </c>
       <c r="D190">
-        <v>29172.16259681795</v>
+        <v>29172.16259681793</v>
       </c>
       <c r="E190">
         <v>39096.4214999325</v>
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>25335.91096555794</v>
+        <v>25335.91096555793</v>
       </c>
       <c r="C191">
-        <v>28466.45172216813</v>
+        <v>28466.45172216814</v>
       </c>
       <c r="D191">
-        <v>35236.79541221685</v>
+        <v>35236.79541221687</v>
       </c>
       <c r="E191">
         <v>46946.19368581213</v>
@@ -3618,7 +3618,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>25757.19421098841</v>
+        <v>25757.19421098842</v>
       </c>
       <c r="C192">
         <v>28066.30185172203</v>
@@ -3627,7 +3627,7 @@
         <v>33794.98988499124</v>
       </c>
       <c r="E192">
-        <v>44587.77546151394</v>
+        <v>44587.77546151396</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3638,10 +3638,10 @@
         <v>34828.92602229259</v>
       </c>
       <c r="C193">
-        <v>37452.41817424095</v>
+        <v>37452.41817424096</v>
       </c>
       <c r="D193">
-        <v>43882.14252928115</v>
+        <v>43882.14252928117</v>
       </c>
       <c r="E193">
         <v>55303.75238244463</v>
@@ -3655,10 +3655,10 @@
         <v>34828.92602229259</v>
       </c>
       <c r="C194">
-        <v>37452.41817424095</v>
+        <v>37452.41817424096</v>
       </c>
       <c r="D194">
-        <v>43882.14252928115</v>
+        <v>43882.14252928117</v>
       </c>
       <c r="E194">
         <v>55303.75238244463</v>
@@ -3669,7 +3669,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>35161.92616848601</v>
+        <v>35161.926168486</v>
       </c>
       <c r="C195">
         <v>37874.4304391668</v>
@@ -3678,7 +3678,7 @@
         <v>44460.2253267335</v>
       </c>
       <c r="E195">
-        <v>56230.46638037432</v>
+        <v>56230.46638037435</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3686,16 +3686,16 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>29420.29469817861</v>
+        <v>29420.29469817862</v>
       </c>
       <c r="C196">
-        <v>31842.53240402734</v>
+        <v>31842.53240402733</v>
       </c>
       <c r="D196">
-        <v>38327.87782838989</v>
+        <v>38327.87782838986</v>
       </c>
       <c r="E196">
-        <v>49894.72897792787</v>
+        <v>49894.72897792788</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,7 +3703,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>30566.60593606284</v>
+        <v>30566.60593606285</v>
       </c>
       <c r="C197">
         <v>33045.1201446891</v>
@@ -3712,7 +3712,7 @@
         <v>39331.05146424433</v>
       </c>
       <c r="E197">
-        <v>50556.03349332353</v>
+        <v>50556.03349332354</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3720,7 +3720,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>30566.60593606284</v>
+        <v>30566.60593606285</v>
       </c>
       <c r="C198">
         <v>33045.1201446891</v>
@@ -3729,7 +3729,7 @@
         <v>39331.05146424433</v>
       </c>
       <c r="E198">
-        <v>50556.03349332353</v>
+        <v>50556.03349332354</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3737,7 +3737,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>30566.60593606284</v>
+        <v>30566.60593606285</v>
       </c>
       <c r="C199">
         <v>33045.1201446891</v>
@@ -3746,7 +3746,7 @@
         <v>39331.05146424433</v>
       </c>
       <c r="E199">
-        <v>50556.03349332353</v>
+        <v>50556.03349332354</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3754,7 +3754,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>30566.60593606284</v>
+        <v>30566.60593606285</v>
       </c>
       <c r="C200">
         <v>33045.1201446891</v>
@@ -3763,7 +3763,7 @@
         <v>39331.05146424433</v>
       </c>
       <c r="E200">
-        <v>50556.03349332353</v>
+        <v>50556.03349332354</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3771,16 +3771,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>33094.85188938237</v>
+        <v>33094.85188938236</v>
       </c>
       <c r="C201">
-        <v>35640.79319247969</v>
+        <v>35640.7931924797</v>
       </c>
       <c r="D201">
         <v>41834.31818402258</v>
       </c>
       <c r="E201">
-        <v>52499.61054243241</v>
+        <v>52499.6105424324</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3791,13 +3791,13 @@
         <v>27786.71844918043</v>
       </c>
       <c r="C202">
-        <v>30397.08075356133</v>
+        <v>30397.08075356134</v>
       </c>
       <c r="D202">
         <v>36757.70714074148</v>
       </c>
       <c r="E202">
-        <v>47231.27266256955</v>
+        <v>47231.27266256951</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3805,16 +3805,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>29420.29469817861</v>
+        <v>29420.29469817862</v>
       </c>
       <c r="C203">
-        <v>31842.53240402734</v>
+        <v>31842.53240402733</v>
       </c>
       <c r="D203">
-        <v>38327.87782838989</v>
+        <v>38327.87782838986</v>
       </c>
       <c r="E203">
-        <v>49894.72897792787</v>
+        <v>49894.72897792788</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>27644.50183205774</v>
+        <v>27644.50183205773</v>
       </c>
       <c r="C204">
-        <v>30390.70310525449</v>
+        <v>30390.70310525448</v>
       </c>
       <c r="D204">
-        <v>37345.56848226982</v>
+        <v>37345.56848226981</v>
       </c>
       <c r="E204">
-        <v>48880.36548105353</v>
+        <v>48880.36548105354</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,16 +3839,16 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>27644.50183205774</v>
+        <v>27644.50183205773</v>
       </c>
       <c r="C205">
-        <v>30390.70310525449</v>
+        <v>30390.70310525448</v>
       </c>
       <c r="D205">
-        <v>37345.56848226982</v>
+        <v>37345.56848226981</v>
       </c>
       <c r="E205">
-        <v>48880.36548105353</v>
+        <v>48880.36548105354</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3859,13 +3859,13 @@
         <v>22386.30426261586</v>
       </c>
       <c r="C206">
-        <v>26136.51407956356</v>
+        <v>26136.51407956357</v>
       </c>
       <c r="D206">
         <v>30254.88173352265</v>
       </c>
       <c r="E206">
-        <v>34173.87224533642</v>
+        <v>34173.87224533641</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3910,13 +3910,13 @@
         <v>22386.30426261586</v>
       </c>
       <c r="C209">
-        <v>26136.51407956356</v>
+        <v>26136.51407956357</v>
       </c>
       <c r="D209">
         <v>30254.88173352265</v>
       </c>
       <c r="E209">
-        <v>34173.87224533642</v>
+        <v>34173.87224533641</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3944,13 +3944,13 @@
         <v>17599.57143396262</v>
       </c>
       <c r="C211">
-        <v>20654.0782809286</v>
+        <v>20654.07828092859</v>
       </c>
       <c r="D211">
-        <v>23987.64086086884</v>
+        <v>23987.64086086883</v>
       </c>
       <c r="E211">
-        <v>27011.05321314553</v>
+        <v>27011.05321314554</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3961,13 +3961,13 @@
         <v>19351.79978011989</v>
       </c>
       <c r="C212">
-        <v>22341.72829383447</v>
+        <v>22341.72829383448</v>
       </c>
       <c r="D212">
         <v>25755.72888102148</v>
       </c>
       <c r="E212">
-        <v>29196.2283605102</v>
+        <v>29196.22836051021</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>20077.11631969854</v>
       </c>
       <c r="E214">
-        <v>22246.26650179175</v>
+        <v>22246.26650179174</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4018,7 +4018,7 @@
         <v>20077.11631969854</v>
       </c>
       <c r="E215">
-        <v>22246.26650179175</v>
+        <v>22246.26650179174</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4029,13 +4029,13 @@
         <v>15031.03033090836</v>
       </c>
       <c r="C216">
-        <v>17632.12854489108</v>
+        <v>17632.12854489107</v>
       </c>
       <c r="D216">
         <v>19183.82674573897</v>
       </c>
       <c r="E216">
-        <v>19612.78105682344</v>
+        <v>19612.78105682343</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4052,7 +4052,7 @@
         <v>21946.69600975974</v>
       </c>
       <c r="E217">
-        <v>23522.002533234</v>
+        <v>23522.00253323401</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>21946.69600975974</v>
       </c>
       <c r="E218">
-        <v>23522.002533234</v>
+        <v>23522.00253323401</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4086,7 +4086,7 @@
         <v>25368.01524492529</v>
       </c>
       <c r="E219">
-        <v>29431.74399803673</v>
+        <v>29431.74399803672</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4100,10 +4100,10 @@
         <v>21409.686433381</v>
       </c>
       <c r="D220">
-        <v>24748.79736395884</v>
+        <v>24748.79736395885</v>
       </c>
       <c r="E220">
-        <v>28307.57686084455</v>
+        <v>28307.57686084456</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4114,13 +4114,13 @@
         <v>19709.10307187904</v>
       </c>
       <c r="C221">
-        <v>22597.07112070693</v>
+        <v>22597.07112070694</v>
       </c>
       <c r="D221">
-        <v>26550.15147262305</v>
+        <v>26550.15147262307</v>
       </c>
       <c r="E221">
-        <v>31393.28308794356</v>
+        <v>31393.28308794355</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4137,7 +4137,7 @@
         <v>25368.01524492529</v>
       </c>
       <c r="E222">
-        <v>29431.74399803673</v>
+        <v>29431.74399803672</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>19709.10307187904</v>
       </c>
       <c r="C223">
-        <v>22597.07112070693</v>
+        <v>22597.07112070694</v>
       </c>
       <c r="D223">
-        <v>26550.15147262305</v>
+        <v>26550.15147262307</v>
       </c>
       <c r="E223">
-        <v>31393.28308794356</v>
+        <v>31393.28308794355</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>14212.58300977405</v>
+        <v>14212.58300977406</v>
       </c>
       <c r="C224">
-        <v>16896.04774250579</v>
+        <v>16896.0477425058</v>
       </c>
       <c r="D224">
-        <v>19723.88437315018</v>
+        <v>19723.88437315017</v>
       </c>
       <c r="E224">
-        <v>21955.32454395953</v>
+        <v>21955.32454395955</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,16 +4179,16 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>14212.58300977405</v>
+        <v>14212.58300977406</v>
       </c>
       <c r="C225">
-        <v>16896.04774250579</v>
+        <v>16896.0477425058</v>
       </c>
       <c r="D225">
-        <v>19723.88437315018</v>
+        <v>19723.88437315017</v>
       </c>
       <c r="E225">
-        <v>21955.32454395953</v>
+        <v>21955.32454395955</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4196,16 +4196,16 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>14212.58300977405</v>
+        <v>14212.58300977406</v>
       </c>
       <c r="C226">
-        <v>16896.04774250579</v>
+        <v>16896.0477425058</v>
       </c>
       <c r="D226">
-        <v>19723.88437315018</v>
+        <v>19723.88437315017</v>
       </c>
       <c r="E226">
-        <v>21955.32454395953</v>
+        <v>21955.32454395955</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4216,13 +4216,13 @@
         <v>15499.395002259</v>
       </c>
       <c r="C227">
-        <v>18285.67140673551</v>
+        <v>18285.67140673552</v>
       </c>
       <c r="D227">
-        <v>21108.86360970419</v>
+        <v>21108.8636097042</v>
       </c>
       <c r="E227">
-        <v>23352.29374641</v>
+        <v>23352.29374641001</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,7 +4230,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>9150.015944542385</v>
+        <v>9150.015944542383</v>
       </c>
       <c r="C228">
         <v>11060.67315607839</v>
@@ -4239,7 +4239,7 @@
         <v>12459.60230379522</v>
       </c>
       <c r="E228">
-        <v>12869.3955847082</v>
+        <v>12869.39558470819</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4253,10 +4253,10 @@
         <v>21409.686433381</v>
       </c>
       <c r="D229">
-        <v>24748.79736395884</v>
+        <v>24748.79736395885</v>
       </c>
       <c r="E229">
-        <v>28307.57686084455</v>
+        <v>28307.57686084456</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4267,13 +4267,13 @@
         <v>19709.10307187904</v>
       </c>
       <c r="C230">
-        <v>22597.07112070693</v>
+        <v>22597.07112070694</v>
       </c>
       <c r="D230">
-        <v>26550.15147262305</v>
+        <v>26550.15147262307</v>
       </c>
       <c r="E230">
-        <v>31393.28308794356</v>
+        <v>31393.28308794355</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4284,13 +4284,13 @@
         <v>19351.79978011989</v>
       </c>
       <c r="C231">
-        <v>22341.72829383447</v>
+        <v>22341.72829383448</v>
       </c>
       <c r="D231">
         <v>25755.72888102148</v>
       </c>
       <c r="E231">
-        <v>29196.2283605102</v>
+        <v>29196.22836051021</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>22760.81229611421</v>
       </c>
       <c r="E232">
-        <v>24990.36298449781</v>
+        <v>24990.3629844978</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>22760.81229611421</v>
       </c>
       <c r="E233">
-        <v>24990.36298449781</v>
+        <v>24990.3629844978</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,7 +4335,7 @@
         <v>19165.66982872209</v>
       </c>
       <c r="C234">
-        <v>21992.59927082252</v>
+        <v>21992.59927082253</v>
       </c>
       <c r="D234">
         <v>25433.12066284539</v>
@@ -4352,7 +4352,7 @@
         <v>19165.66982872209</v>
       </c>
       <c r="C235">
-        <v>21992.59927082252</v>
+        <v>21992.59927082253</v>
       </c>
       <c r="D235">
         <v>25433.12066284539</v>
@@ -4369,7 +4369,7 @@
         <v>19165.66982872209</v>
       </c>
       <c r="C236">
-        <v>21992.59927082252</v>
+        <v>21992.59927082253</v>
       </c>
       <c r="D236">
         <v>25433.12066284539</v>
@@ -4386,13 +4386,13 @@
         <v>15499.395002259</v>
       </c>
       <c r="C237">
-        <v>18285.67140673551</v>
+        <v>18285.67140673552</v>
       </c>
       <c r="D237">
-        <v>21108.86360970419</v>
+        <v>21108.8636097042</v>
       </c>
       <c r="E237">
-        <v>23352.29374641</v>
+        <v>23352.29374641001</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4403,13 +4403,13 @@
         <v>15499.395002259</v>
       </c>
       <c r="C238">
-        <v>18285.67140673551</v>
+        <v>18285.67140673552</v>
       </c>
       <c r="D238">
-        <v>21108.86360970419</v>
+        <v>21108.8636097042</v>
       </c>
       <c r="E238">
-        <v>23352.29374641</v>
+        <v>23352.29374641001</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>15499.395002259</v>
       </c>
       <c r="C239">
-        <v>18285.67140673551</v>
+        <v>18285.67140673552</v>
       </c>
       <c r="D239">
-        <v>21108.86360970419</v>
+        <v>21108.8636097042</v>
       </c>
       <c r="E239">
-        <v>23352.29374641</v>
+        <v>23352.29374641001</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4434,16 +4434,16 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>11597.36087345416</v>
+        <v>11597.36087345417</v>
       </c>
       <c r="C240">
-        <v>13575.58039195233</v>
+        <v>13575.58039195234</v>
       </c>
       <c r="D240">
-        <v>14929.31863571668</v>
+        <v>14929.31863571667</v>
       </c>
       <c r="E240">
-        <v>15215.51256427618</v>
+        <v>15215.51256427619</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,10 +4454,10 @@
         <v>11476.23110714802</v>
       </c>
       <c r="C241">
-        <v>13541.38848556218</v>
+        <v>13541.38848556219</v>
       </c>
       <c r="D241">
-        <v>15112.91969813252</v>
+        <v>15112.91969813251</v>
       </c>
       <c r="E241">
         <v>15670.32048518988</v>
@@ -4471,13 +4471,13 @@
         <v>19709.10307187904</v>
       </c>
       <c r="C242">
-        <v>22597.07112070693</v>
+        <v>22597.07112070694</v>
       </c>
       <c r="D242">
-        <v>26550.15147262305</v>
+        <v>26550.15147262307</v>
       </c>
       <c r="E242">
-        <v>31393.28308794356</v>
+        <v>31393.28308794355</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,13 +4485,13 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>19441.94257086315</v>
+        <v>19441.94257086314</v>
       </c>
       <c r="C243">
         <v>22506.99252948315</v>
       </c>
       <c r="D243">
-        <v>27174.64722686345</v>
+        <v>27174.64722686346</v>
       </c>
       <c r="E243">
         <v>32795.21674365309</v>
@@ -4505,13 +4505,13 @@
         <v>19709.10307187904</v>
       </c>
       <c r="C244">
-        <v>22597.07112070693</v>
+        <v>22597.07112070694</v>
       </c>
       <c r="D244">
-        <v>26550.15147262305</v>
+        <v>26550.15147262307</v>
       </c>
       <c r="E244">
-        <v>31393.28308794356</v>
+        <v>31393.28308794355</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4519,13 +4519,13 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>19441.94257086315</v>
+        <v>19441.94257086314</v>
       </c>
       <c r="C245">
         <v>22506.99252948315</v>
       </c>
       <c r="D245">
-        <v>27174.64722686345</v>
+        <v>27174.64722686346</v>
       </c>
       <c r="E245">
         <v>32795.21674365309</v>
@@ -4536,16 +4536,16 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>21813.47589377478</v>
+        <v>21813.47589377477</v>
       </c>
       <c r="C246">
         <v>25141.11836311927</v>
       </c>
       <c r="D246">
-        <v>29493.10612110591</v>
+        <v>29493.10612110592</v>
       </c>
       <c r="E246">
-        <v>34479.34669485578</v>
+        <v>34479.3466948558</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,16 +4553,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>21813.47589377478</v>
+        <v>21813.47589377477</v>
       </c>
       <c r="C247">
         <v>25141.11836311927</v>
       </c>
       <c r="D247">
-        <v>29493.10612110591</v>
+        <v>29493.10612110592</v>
       </c>
       <c r="E247">
-        <v>34479.34669485578</v>
+        <v>34479.3466948558</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>17599.57143396262</v>
       </c>
       <c r="C248">
-        <v>20654.0782809286</v>
+        <v>20654.07828092859</v>
       </c>
       <c r="D248">
-        <v>23987.64086086884</v>
+        <v>23987.64086086883</v>
       </c>
       <c r="E248">
-        <v>27011.05321314553</v>
+        <v>27011.05321314554</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>9150.015944542385</v>
+        <v>9150.015944542383</v>
       </c>
       <c r="C249">
         <v>11060.67315607839</v>
@@ -4596,7 +4596,7 @@
         <v>12459.60230379522</v>
       </c>
       <c r="E249">
-        <v>12869.3955847082</v>
+        <v>12869.39558470819</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,13 +4604,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>29413.72037587441</v>
+        <v>29413.72037587442</v>
       </c>
       <c r="C250">
         <v>33111.9183967733</v>
       </c>
       <c r="D250">
-        <v>38931.0017613259</v>
+        <v>38931.00176132592</v>
       </c>
       <c r="E250">
         <v>46892.53298986526</v>
@@ -4647,7 +4647,7 @@
         <v>38632.314500373</v>
       </c>
       <c r="E252">
-        <v>46400.25015330002</v>
+        <v>46400.25015330004</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4658,10 +4658,10 @@
         <v>26217.6758351967</v>
       </c>
       <c r="C253">
-        <v>29586.12949579687</v>
+        <v>29586.12949579688</v>
       </c>
       <c r="D253">
-        <v>35632.4543658858</v>
+        <v>35632.45436588582</v>
       </c>
       <c r="E253">
         <v>43634.06517496595</v>
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>30319.07562469909</v>
+        <v>30319.07562469907</v>
       </c>
       <c r="C254">
         <v>33503.10043655564</v>
       </c>
       <c r="D254">
-        <v>39150.20093152983</v>
+        <v>39150.20093152982</v>
       </c>
       <c r="E254">
-        <v>47581.76427532439</v>
+        <v>47581.76427532442</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4692,10 +4692,10 @@
         <v>26217.6758351967</v>
       </c>
       <c r="C255">
-        <v>29586.12949579687</v>
+        <v>29586.12949579688</v>
       </c>
       <c r="D255">
-        <v>35632.4543658858</v>
+        <v>35632.45436588582</v>
       </c>
       <c r="E255">
         <v>43634.06517496595</v>
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>29336.34146437407</v>
+        <v>29336.34146437408</v>
       </c>
       <c r="C256">
-        <v>33094.90441363226</v>
+        <v>33094.90441363227</v>
       </c>
       <c r="D256">
         <v>38339.032728415</v>
@@ -4729,10 +4729,10 @@
         <v>25807.03912335244</v>
       </c>
       <c r="D257">
-        <v>30808.47598548933</v>
+        <v>30808.47598548935</v>
       </c>
       <c r="E257">
-        <v>36593.68987383903</v>
+        <v>36593.68987383901</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,13 +4740,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>18124.88657106904</v>
+        <v>18124.88657106905</v>
       </c>
       <c r="C258">
         <v>21561.84730420209</v>
       </c>
       <c r="D258">
-        <v>27932.36530184988</v>
+        <v>27932.36530184987</v>
       </c>
       <c r="E258">
         <v>36235.11196080493</v>
@@ -4757,13 +4757,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>18124.88657106904</v>
+        <v>18124.88657106905</v>
       </c>
       <c r="C259">
         <v>21561.84730420209</v>
       </c>
       <c r="D259">
-        <v>27932.36530184988</v>
+        <v>27932.36530184987</v>
       </c>
       <c r="E259">
         <v>36235.11196080493</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>5532.233107865724</v>
+        <v>5532.233107865726</v>
       </c>
       <c r="C260">
         <v>6563.51579445843</v>
       </c>
       <c r="D260">
-        <v>9293.194960292922</v>
+        <v>9293.194960292925</v>
       </c>
       <c r="E260">
         <v>14129.34923997234</v>
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>3795.405220460329</v>
+        <v>3795.40522046033</v>
       </c>
       <c r="C261">
-        <v>4415.033918479359</v>
+        <v>4415.033918479358</v>
       </c>
       <c r="D261">
-        <v>5884.605710595446</v>
+        <v>5884.605710595445</v>
       </c>
       <c r="E261">
-        <v>8673.307053429766</v>
+        <v>8673.307053429762</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4808,16 +4808,16 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>6068.251783230954</v>
+        <v>6068.251783230955</v>
       </c>
       <c r="C262">
-        <v>7244.754489574101</v>
+        <v>7244.7544895741</v>
       </c>
       <c r="D262">
         <v>10364.50440480961</v>
       </c>
       <c r="E262">
-        <v>15803.6594276525</v>
+        <v>15803.65942765251</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,16 +4825,16 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>6068.251783230954</v>
+        <v>6068.251783230955</v>
       </c>
       <c r="C263">
-        <v>7244.754489574101</v>
+        <v>7244.7544895741</v>
       </c>
       <c r="D263">
         <v>10364.50440480961</v>
       </c>
       <c r="E263">
-        <v>15803.6594276525</v>
+        <v>15803.65942765251</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4845,13 +4845,13 @@
         <v>6359.272684919023</v>
       </c>
       <c r="C264">
-        <v>7704.920478560616</v>
+        <v>7704.920478560613</v>
       </c>
       <c r="D264">
-        <v>11225.22947341969</v>
+        <v>11225.22947341968</v>
       </c>
       <c r="E264">
-        <v>17161.51031052122</v>
+        <v>17161.51031052123</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>6359.272684919023</v>
       </c>
       <c r="C265">
-        <v>7704.920478560616</v>
+        <v>7704.920478560613</v>
       </c>
       <c r="D265">
-        <v>11225.22947341969</v>
+        <v>11225.22947341968</v>
       </c>
       <c r="E265">
-        <v>17161.51031052122</v>
+        <v>17161.51031052123</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,13 +4876,13 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>5451.18827969206</v>
+        <v>5451.188279692062</v>
       </c>
       <c r="C266">
-        <v>6379.519370534345</v>
+        <v>6379.519370534346</v>
       </c>
       <c r="D266">
-        <v>8890.660642130521</v>
+        <v>8890.660642130526</v>
       </c>
       <c r="E266">
         <v>13423.27954464807</v>
@@ -4896,13 +4896,13 @@
         <v>6359.272684919023</v>
       </c>
       <c r="C267">
-        <v>7704.920478560616</v>
+        <v>7704.920478560613</v>
       </c>
       <c r="D267">
-        <v>11225.22947341969</v>
+        <v>11225.22947341968</v>
       </c>
       <c r="E267">
-        <v>17161.51031052122</v>
+        <v>17161.51031052123</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,16 +4910,16 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>3795.405220460329</v>
+        <v>3795.40522046033</v>
       </c>
       <c r="C268">
-        <v>4415.033918479359</v>
+        <v>4415.033918479358</v>
       </c>
       <c r="D268">
-        <v>5884.605710595446</v>
+        <v>5884.605710595445</v>
       </c>
       <c r="E268">
-        <v>8673.307053429766</v>
+        <v>8673.307053429762</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>3795.405220460329</v>
+        <v>3795.40522046033</v>
       </c>
       <c r="C269">
-        <v>4415.033918479359</v>
+        <v>4415.033918479358</v>
       </c>
       <c r="D269">
-        <v>5884.605710595446</v>
+        <v>5884.605710595445</v>
       </c>
       <c r="E269">
-        <v>8673.307053429766</v>
+        <v>8673.307053429762</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4953,7 +4953,7 @@
         <v>4773.687998043531</v>
       </c>
       <c r="E270">
-        <v>7098.025794027094</v>
+        <v>7098.025794027095</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2887.98054492475</v>
+        <v>2887.980544924749</v>
       </c>
       <c r="C273">
         <v>3581.830636348473</v>
       </c>
       <c r="D273">
-        <v>5172.522185760071</v>
+        <v>5172.522185760073</v>
       </c>
       <c r="E273">
-        <v>7579.916000454367</v>
+        <v>7579.916000454363</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>2887.98054492475</v>
+        <v>2887.980544924749</v>
       </c>
       <c r="C274">
         <v>3581.830636348473</v>
       </c>
       <c r="D274">
-        <v>5172.522185760071</v>
+        <v>5172.522185760073</v>
       </c>
       <c r="E274">
-        <v>7579.916000454367</v>
+        <v>7579.916000454363</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,13 +5029,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>5629.865027017673</v>
+        <v>5629.865027017675</v>
       </c>
       <c r="C275">
-        <v>7361.608962999659</v>
+        <v>7361.608962999657</v>
       </c>
       <c r="D275">
-        <v>11111.32725277107</v>
+        <v>11111.32725277108</v>
       </c>
       <c r="E275">
         <v>15374.13093069507</v>
@@ -5066,13 +5066,13 @@
         <v>7004.685361944361</v>
       </c>
       <c r="C277">
-        <v>9250.480507145221</v>
+        <v>9250.480507145223</v>
       </c>
       <c r="D277">
         <v>13696.71062457709</v>
       </c>
       <c r="E277">
-        <v>18601.43463073301</v>
+        <v>18601.434630733</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5086,10 +5086,10 @@
         <v>11855.12950359788</v>
       </c>
       <c r="D278">
-        <v>17513.14118971369</v>
+        <v>17513.1411897137</v>
       </c>
       <c r="E278">
-        <v>23762.16217087181</v>
+        <v>23762.1621708718</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5103,7 +5103,7 @@
         <v>13997.37191020716</v>
       </c>
       <c r="D279">
-        <v>18742.4433913504</v>
+        <v>18742.44339135041</v>
       </c>
       <c r="E279">
         <v>23776.95083299468</v>
@@ -5120,7 +5120,7 @@
         <v>13997.37191020716</v>
       </c>
       <c r="D280">
-        <v>18742.4433913504</v>
+        <v>18742.44339135041</v>
       </c>
       <c r="E280">
         <v>23776.95083299468</v>
@@ -5140,7 +5140,7 @@
         <v>3185.156337471072</v>
       </c>
       <c r="E281">
-        <v>3847.988794255149</v>
+        <v>3847.988794255151</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5151,13 +5151,13 @@
         <v>1951.661166686614</v>
       </c>
       <c r="C282">
-        <v>2362.252446517995</v>
+        <v>2362.252446517994</v>
       </c>
       <c r="D282">
         <v>3208.780087731865</v>
       </c>
       <c r="E282">
-        <v>4030.294033672898</v>
+        <v>4030.2940336729</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5168,13 +5168,13 @@
         <v>1951.661166686614</v>
       </c>
       <c r="C283">
-        <v>2362.252446517995</v>
+        <v>2362.252446517994</v>
       </c>
       <c r="D283">
         <v>3208.780087731865</v>
       </c>
       <c r="E283">
-        <v>4030.294033672898</v>
+        <v>4030.2940336729</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>1951.661166686614</v>
       </c>
       <c r="C284">
-        <v>2362.252446517995</v>
+        <v>2362.252446517994</v>
       </c>
       <c r="D284">
         <v>3208.780087731865</v>
       </c>
       <c r="E284">
-        <v>4030.294033672898</v>
+        <v>4030.2940336729</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5222,7 +5222,7 @@
         <v>13997.37191020716</v>
       </c>
       <c r="D286">
-        <v>18742.4433913504</v>
+        <v>18742.44339135041</v>
       </c>
       <c r="E286">
         <v>23776.95083299468</v>
@@ -5239,10 +5239,10 @@
         <v>22478.07151601278</v>
       </c>
       <c r="D287">
-        <v>28487.12273003505</v>
+        <v>28487.12273003504</v>
       </c>
       <c r="E287">
-        <v>37916.88749938611</v>
+        <v>37916.8874993861</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>13506.84621114539</v>
+        <v>13506.8462111454</v>
       </c>
       <c r="C288">
-        <v>16744.71540808388</v>
+        <v>16744.71540808387</v>
       </c>
       <c r="D288">
-        <v>22777.94404535933</v>
+        <v>22777.94404535932</v>
       </c>
       <c r="E288">
-        <v>31605.33262854282</v>
+        <v>31605.33262854284</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,7 +5267,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>16568.49657984782</v>
+        <v>16568.49657984783</v>
       </c>
       <c r="C289">
         <v>19380.36773980335</v>
@@ -5290,10 +5290,10 @@
         <v>22478.07151601278</v>
       </c>
       <c r="D290">
-        <v>28487.12273003505</v>
+        <v>28487.12273003504</v>
       </c>
       <c r="E290">
-        <v>37916.88749938611</v>
+        <v>37916.8874993861</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5301,7 +5301,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>11875.73265076732</v>
+        <v>11875.73265076731</v>
       </c>
       <c r="C291">
         <v>15048.03459935319</v>
@@ -5310,7 +5310,7 @@
         <v>21001.55654351912</v>
       </c>
       <c r="E291">
-        <v>29672.6270190375</v>
+        <v>29672.62701903751</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5318,16 +5318,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>13385.7618997445</v>
+        <v>13385.76189974451</v>
       </c>
       <c r="C292">
-        <v>16525.73489091294</v>
+        <v>16525.73489091293</v>
       </c>
       <c r="D292">
         <v>22652.80643108422</v>
       </c>
       <c r="E292">
-        <v>31417.75987396604</v>
+        <v>31417.75987396602</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>13385.7618997445</v>
+        <v>13385.76189974451</v>
       </c>
       <c r="C294">
-        <v>16525.73489091294</v>
+        <v>16525.73489091293</v>
       </c>
       <c r="D294">
         <v>22652.80643108422</v>
       </c>
       <c r="E294">
-        <v>31417.75987396604</v>
+        <v>31417.75987396602</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5375,10 +5375,10 @@
         <v>15984.46702353575</v>
       </c>
       <c r="D295">
-        <v>22037.68520009703</v>
+        <v>22037.68520009702</v>
       </c>
       <c r="E295">
-        <v>30475.90024597647</v>
+        <v>30475.90024597645</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5395,7 +5395,7 @@
         <v>24965.48823954038</v>
       </c>
       <c r="E296">
-        <v>33790.88942068948</v>
+        <v>33790.88942068947</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5403,7 +5403,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>14206.17978272259</v>
+        <v>14206.1797827226</v>
       </c>
       <c r="C297">
         <v>17190.48506742565</v>
@@ -5412,7 +5412,7 @@
         <v>23535.19498692729</v>
       </c>
       <c r="E297">
-        <v>32370.03568976019</v>
+        <v>32370.03568976017</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5429,7 +5429,7 @@
         <v>22632.19144400833</v>
       </c>
       <c r="E298">
-        <v>31191.32479276364</v>
+        <v>31191.32479276362</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5460,10 +5460,10 @@
         <v>15984.46702353575</v>
       </c>
       <c r="D300">
-        <v>22037.68520009703</v>
+        <v>22037.68520009702</v>
       </c>
       <c r="E300">
-        <v>30475.90024597647</v>
+        <v>30475.90024597645</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>24965.48823954038</v>
       </c>
       <c r="E301">
-        <v>33790.88942068948</v>
+        <v>33790.88942068947</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5497,7 +5497,7 @@
         <v>22632.19144400833</v>
       </c>
       <c r="E302">
-        <v>31191.32479276364</v>
+        <v>31191.32479276362</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5514,7 +5514,7 @@
         <v>22632.19144400833</v>
       </c>
       <c r="E303">
-        <v>31191.32479276364</v>
+        <v>31191.32479276362</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5522,13 +5522,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>10685.27140220477</v>
+        <v>10685.27140220476</v>
       </c>
       <c r="C304">
-        <v>13025.53559717312</v>
+        <v>13025.53559717311</v>
       </c>
       <c r="D304">
-        <v>18297.18162329515</v>
+        <v>18297.18162329516</v>
       </c>
       <c r="E304">
         <v>25719.38557223662</v>
@@ -5539,13 +5539,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>10685.27140220477</v>
+        <v>10685.27140220476</v>
       </c>
       <c r="C305">
-        <v>13025.53559717312</v>
+        <v>13025.53559717311</v>
       </c>
       <c r="D305">
-        <v>18297.18162329515</v>
+        <v>18297.18162329516</v>
       </c>
       <c r="E305">
         <v>25719.38557223662</v>
@@ -5573,13 +5573,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>10685.27140220477</v>
+        <v>10685.27140220476</v>
       </c>
       <c r="C307">
-        <v>13025.53559717312</v>
+        <v>13025.53559717311</v>
       </c>
       <c r="D307">
-        <v>18297.18162329515</v>
+        <v>18297.18162329516</v>
       </c>
       <c r="E307">
         <v>25719.38557223662</v>
@@ -5624,13 +5624,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>10685.27140220477</v>
+        <v>10685.27140220476</v>
       </c>
       <c r="C310">
-        <v>13025.53559717312</v>
+        <v>13025.53559717311</v>
       </c>
       <c r="D310">
-        <v>18297.18162329515</v>
+        <v>18297.18162329516</v>
       </c>
       <c r="E310">
         <v>25719.38557223662</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>2672.896118055313</v>
+        <v>2672.896118055314</v>
       </c>
       <c r="C311">
-        <v>3207.715566190121</v>
+        <v>3207.715566190122</v>
       </c>
       <c r="D311">
-        <v>4357.115680257099</v>
+        <v>4357.115680257098</v>
       </c>
       <c r="E311">
-        <v>6169.628340803823</v>
+        <v>6169.628340803826</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>2672.896118055313</v>
+        <v>2672.896118055314</v>
       </c>
       <c r="C312">
-        <v>3207.715566190121</v>
+        <v>3207.715566190122</v>
       </c>
       <c r="D312">
-        <v>4357.115680257099</v>
+        <v>4357.115680257098</v>
       </c>
       <c r="E312">
-        <v>6169.628340803823</v>
+        <v>6169.628340803826</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>2672.896118055313</v>
+        <v>2672.896118055314</v>
       </c>
       <c r="C313">
-        <v>3207.715566190121</v>
+        <v>3207.715566190122</v>
       </c>
       <c r="D313">
-        <v>4357.115680257099</v>
+        <v>4357.115680257098</v>
       </c>
       <c r="E313">
-        <v>6169.628340803823</v>
+        <v>6169.628340803826</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,16 +5692,16 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>2672.896118055313</v>
+        <v>2672.896118055314</v>
       </c>
       <c r="C314">
-        <v>3207.715566190121</v>
+        <v>3207.715566190122</v>
       </c>
       <c r="D314">
-        <v>4357.115680257099</v>
+        <v>4357.115680257098</v>
       </c>
       <c r="E314">
-        <v>6169.628340803823</v>
+        <v>6169.628340803826</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5715,10 +5715,10 @@
         <v>23714.43618967797</v>
       </c>
       <c r="D315">
-        <v>31176.7210530313</v>
+        <v>31176.72105303131</v>
       </c>
       <c r="E315">
-        <v>42358.27543742995</v>
+        <v>42358.27543742996</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,16 +5726,16 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>31670.65034762833</v>
+        <v>31670.65034762832</v>
       </c>
       <c r="C316">
-        <v>34378.09309575867</v>
+        <v>34378.09309575868</v>
       </c>
       <c r="D316">
-        <v>41187.6842436824</v>
+        <v>41187.68424368239</v>
       </c>
       <c r="E316">
-        <v>52817.58312621136</v>
+        <v>52817.58312621135</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>28837.57995233991</v>
+        <v>28837.5799523399</v>
       </c>
       <c r="C317">
-        <v>31367.43349177992</v>
+        <v>31367.43349177991</v>
       </c>
       <c r="D317">
-        <v>38004.9124010406</v>
+        <v>38004.91240104061</v>
       </c>
       <c r="E317">
-        <v>49506.44867804795</v>
+        <v>49506.44867804793</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>26368.31915771084</v>
       </c>
       <c r="C318">
-        <v>28949.08591072388</v>
+        <v>28949.08591072387</v>
       </c>
       <c r="D318">
-        <v>35547.75010010322</v>
+        <v>35547.75010010324</v>
       </c>
       <c r="E318">
         <v>46544.75488070273</v>
@@ -5786,7 +5786,7 @@
         <v>29734.41936427495</v>
       </c>
       <c r="E319">
-        <v>40856.18982554055</v>
+        <v>40856.18982554053</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>23904.64708296954</v>
+        <v>23904.64708296953</v>
       </c>
       <c r="C320">
         <v>26503.58498030077</v>
@@ -5803,7 +5803,7 @@
         <v>33067.73345878579</v>
       </c>
       <c r="E320">
-        <v>43722.07698081194</v>
+        <v>43722.07698081195</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5834,7 +5834,7 @@
         <v>21539.25787830264</v>
       </c>
       <c r="D322">
-        <v>28800.14333784997</v>
+        <v>28800.14333784998</v>
       </c>
       <c r="E322">
         <v>39479.56787423987</v>
@@ -5845,16 +5845,16 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>25277.31270265621</v>
+        <v>25277.3127026562</v>
       </c>
       <c r="C323">
-        <v>27537.34290804181</v>
+        <v>27537.3429080418</v>
       </c>
       <c r="D323">
-        <v>33416.5079277099</v>
+        <v>33416.50792770989</v>
       </c>
       <c r="E323">
-        <v>44174.71728681779</v>
+        <v>44174.71728681778</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>25277.31270265621</v>
+        <v>25277.3127026562</v>
       </c>
       <c r="C324">
-        <v>27537.34290804181</v>
+        <v>27537.3429080418</v>
       </c>
       <c r="D324">
-        <v>33416.5079277099</v>
+        <v>33416.50792770989</v>
       </c>
       <c r="E324">
-        <v>44174.71728681779</v>
+        <v>44174.71728681778</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>25277.31270265621</v>
+        <v>25277.3127026562</v>
       </c>
       <c r="C325">
-        <v>27537.34290804181</v>
+        <v>27537.3429080418</v>
       </c>
       <c r="D325">
-        <v>33416.5079277099</v>
+        <v>33416.50792770989</v>
       </c>
       <c r="E325">
-        <v>44174.71728681779</v>
+        <v>44174.71728681778</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5902,10 +5902,10 @@
         <v>31724.27488761592</v>
       </c>
       <c r="D326">
-        <v>37666.37313937532</v>
+        <v>37666.37313937533</v>
       </c>
       <c r="E326">
-        <v>49086.54743839008</v>
+        <v>49086.54743839005</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5953,10 +5953,10 @@
         <v>14263.9737998754</v>
       </c>
       <c r="D329">
-        <v>19588.12442730542</v>
+        <v>19588.12442730541</v>
       </c>
       <c r="E329">
-        <v>28542.20819251725</v>
+        <v>28542.20819251724</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>17412.77296175679</v>
+        <v>17412.77296175678</v>
       </c>
       <c r="C332">
-        <v>19752.27457483817</v>
+        <v>19752.27457483819</v>
       </c>
       <c r="D332">
         <v>25307.22619513683</v>
       </c>
       <c r="E332">
-        <v>34182.5920455365</v>
+        <v>34182.59204553653</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,7 +6015,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>22115.071623759</v>
+        <v>22115.07162375901</v>
       </c>
       <c r="C333">
         <v>24711.00228919313</v>
@@ -6024,7 +6024,7 @@
         <v>30676.22199337221</v>
       </c>
       <c r="E333">
-        <v>40102.59481613162</v>
+        <v>40102.59481613161</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6032,16 +6032,16 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>22830.69218157935</v>
+        <v>22830.69218157937</v>
       </c>
       <c r="C334">
         <v>25290.7522572581</v>
       </c>
       <c r="D334">
-        <v>31270.3801358564</v>
+        <v>31270.38013585639</v>
       </c>
       <c r="E334">
-        <v>40723.7302072739</v>
+        <v>40723.73020727389</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6052,13 +6052,13 @@
         <v>20270.07058746936</v>
       </c>
       <c r="C335">
-        <v>22826.51555658141</v>
+        <v>22826.51555658142</v>
       </c>
       <c r="D335">
         <v>28718.4223906345</v>
       </c>
       <c r="E335">
-        <v>37845.14354132841</v>
+        <v>37845.14354132839</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6075,7 +6075,7 @@
         <v>21788.53758151096</v>
       </c>
       <c r="E336">
-        <v>29603.59505884665</v>
+        <v>29603.59505884664</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6083,13 +6083,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>8026.131141906351</v>
+        <v>8026.13114190635</v>
       </c>
       <c r="C337">
         <v>10969.98332604115</v>
       </c>
       <c r="D337">
-        <v>15633.64779278804</v>
+        <v>15633.64779278806</v>
       </c>
       <c r="E337">
         <v>19577.60918013645</v>
@@ -6109,7 +6109,7 @@
         <v>20355.35448921375</v>
       </c>
       <c r="E338">
-        <v>25429.94163966393</v>
+        <v>25429.94163966395</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,13 +6117,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>8026.131141906351</v>
+        <v>8026.13114190635</v>
       </c>
       <c r="C339">
         <v>10969.98332604115</v>
       </c>
       <c r="D339">
-        <v>15633.64779278804</v>
+        <v>15633.64779278806</v>
       </c>
       <c r="E339">
         <v>19577.60918013645</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>7439.390385799245</v>
+        <v>7439.390385799246</v>
       </c>
       <c r="C340">
         <v>10114.02597763369</v>
@@ -6151,7 +6151,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>7439.390385799245</v>
+        <v>7439.390385799246</v>
       </c>
       <c r="C341">
         <v>10114.02597763369</v>
@@ -6168,7 +6168,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>9126.275444497818</v>
+        <v>9126.275444497816</v>
       </c>
       <c r="C342">
         <v>12450.03518537459</v>
@@ -6177,7 +6177,7 @@
         <v>17516.11960316203</v>
       </c>
       <c r="E342">
-        <v>22008.39134150219</v>
+        <v>22008.39134150221</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6185,7 +6185,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>9126.275444497818</v>
+        <v>9126.275444497816</v>
       </c>
       <c r="C343">
         <v>12450.03518537459</v>
@@ -6194,7 +6194,7 @@
         <v>17516.11960316203</v>
       </c>
       <c r="E343">
-        <v>22008.39134150219</v>
+        <v>22008.39134150221</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6202,7 +6202,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>7439.390385799245</v>
+        <v>7439.390385799246</v>
       </c>
       <c r="C344">
         <v>10114.02597763369</v>
@@ -6225,10 +6225,10 @@
         <v>6199.002730025053</v>
       </c>
       <c r="D345">
-        <v>8967.603525725013</v>
+        <v>8967.60352572501</v>
       </c>
       <c r="E345">
-        <v>11508.78476454453</v>
+        <v>11508.78476454454</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6242,10 +6242,10 @@
         <v>6199.002730025053</v>
       </c>
       <c r="D346">
-        <v>8967.603525725013</v>
+        <v>8967.60352572501</v>
       </c>
       <c r="E346">
-        <v>11508.78476454453</v>
+        <v>11508.78476454454</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6259,10 +6259,10 @@
         <v>6199.002730025053</v>
       </c>
       <c r="D347">
-        <v>8967.603525725013</v>
+        <v>8967.60352572501</v>
       </c>
       <c r="E347">
-        <v>11508.78476454453</v>
+        <v>11508.78476454454</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6324,13 +6324,13 @@
         <v>2898.384808863374</v>
       </c>
       <c r="C351">
-        <v>3744.685338988279</v>
+        <v>3744.685338988278</v>
       </c>
       <c r="D351">
         <v>5446.72493905385</v>
       </c>
       <c r="E351">
-        <v>7099.846921518535</v>
+        <v>7099.846921518537</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6341,13 +6341,13 @@
         <v>2898.384808863374</v>
       </c>
       <c r="C352">
-        <v>3744.685338988279</v>
+        <v>3744.685338988278</v>
       </c>
       <c r="D352">
         <v>5446.72493905385</v>
       </c>
       <c r="E352">
-        <v>7099.846921518535</v>
+        <v>7099.846921518537</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>10463.05091996386</v>
+        <v>10463.05091996387</v>
       </c>
       <c r="C353">
         <v>12986.98514081964</v>
@@ -6372,16 +6372,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>9212.380798345512</v>
+        <v>9212.38079834551</v>
       </c>
       <c r="C354">
-        <v>11487.10281118908</v>
+        <v>11487.10281118909</v>
       </c>
       <c r="D354">
         <v>12710.42533634336</v>
       </c>
       <c r="E354">
-        <v>12285.89738160873</v>
+        <v>12285.89738160872</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>10463.05091996386</v>
+        <v>10463.05091996387</v>
       </c>
       <c r="C355">
         <v>12986.98514081964</v>
@@ -6460,13 +6460,13 @@
         <v>2710.695722047203</v>
       </c>
       <c r="C359">
-        <v>4296.945888464715</v>
+        <v>4296.945888464714</v>
       </c>
       <c r="D359">
-        <v>6393.005701460832</v>
+        <v>6393.005701460831</v>
       </c>
       <c r="E359">
-        <v>6795.731484490568</v>
+        <v>6795.731484490566</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6477,13 +6477,13 @@
         <v>2710.695722047203</v>
       </c>
       <c r="C360">
-        <v>4296.945888464715</v>
+        <v>4296.945888464714</v>
       </c>
       <c r="D360">
-        <v>6393.005701460832</v>
+        <v>6393.005701460831</v>
       </c>
       <c r="E360">
-        <v>6795.731484490568</v>
+        <v>6795.731484490566</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6497,10 +6497,10 @@
         <v>17899.43388981494</v>
       </c>
       <c r="D361">
-        <v>23781.05777520449</v>
+        <v>23781.0577752045</v>
       </c>
       <c r="E361">
-        <v>30713.5540978684</v>
+        <v>30713.55409786839</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6511,10 +6511,10 @@
         <v>4542.717666743293</v>
       </c>
       <c r="C362">
-        <v>5561.85045626846</v>
+        <v>5561.850456268461</v>
       </c>
       <c r="D362">
-        <v>8041.146210452898</v>
+        <v>8041.1462104529</v>
       </c>
       <c r="E362">
         <v>11227.52756482177</v>
@@ -6525,13 +6525,13 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>4362.855414035143</v>
+        <v>4362.855414035141</v>
       </c>
       <c r="C363">
-        <v>5389.478765700604</v>
+        <v>5389.478765700605</v>
       </c>
       <c r="D363">
-        <v>7926.736740291944</v>
+        <v>7926.736740291941</v>
       </c>
       <c r="E363">
         <v>11140.86785583633</v>
@@ -6542,7 +6542,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>17398.44258962351</v>
+        <v>17398.4425896235</v>
       </c>
       <c r="C364">
         <v>19588.70849731332</v>
@@ -6559,7 +6559,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>17398.44258962351</v>
+        <v>17398.4425896235</v>
       </c>
       <c r="C365">
         <v>19588.70849731332</v>
@@ -6613,10 +6613,10 @@
         <v>13183.95530345428</v>
       </c>
       <c r="C368">
-        <v>15150.62593546885</v>
+        <v>15150.62593546886</v>
       </c>
       <c r="D368">
-        <v>19682.93381598792</v>
+        <v>19682.93381598793</v>
       </c>
       <c r="E368">
         <v>26104.65269911355</v>
@@ -6647,13 +6647,13 @@
         <v>2620.267375716067</v>
       </c>
       <c r="C370">
-        <v>3276.956544171298</v>
+        <v>3276.956544171299</v>
       </c>
       <c r="D370">
-        <v>5151.759553218342</v>
+        <v>5151.75955321834</v>
       </c>
       <c r="E370">
-        <v>7723.262158724574</v>
+        <v>7723.262158724575</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6664,13 +6664,13 @@
         <v>2620.267375716067</v>
       </c>
       <c r="C371">
-        <v>3276.956544171298</v>
+        <v>3276.956544171299</v>
       </c>
       <c r="D371">
-        <v>5151.759553218342</v>
+        <v>5151.75955321834</v>
       </c>
       <c r="E371">
-        <v>7723.262158724574</v>
+        <v>7723.262158724575</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6681,13 +6681,13 @@
         <v>2620.267375716067</v>
       </c>
       <c r="C372">
-        <v>3276.956544171298</v>
+        <v>3276.956544171299</v>
       </c>
       <c r="D372">
-        <v>5151.759553218342</v>
+        <v>5151.75955321834</v>
       </c>
       <c r="E372">
-        <v>7723.262158724574</v>
+        <v>7723.262158724575</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6704,7 +6704,7 @@
         <v>25638.10659882086</v>
       </c>
       <c r="E373">
-        <v>31447.31204674361</v>
+        <v>31447.31204674362</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6738,7 +6738,7 @@
         <v>25638.10659882086</v>
       </c>
       <c r="E375">
-        <v>31447.31204674361</v>
+        <v>31447.31204674362</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6755,7 +6755,7 @@
         <v>19728.27629162466</v>
       </c>
       <c r="E376">
-        <v>24395.09686994772</v>
+        <v>24395.09686994771</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6772,7 +6772,7 @@
         <v>19728.27629162466</v>
       </c>
       <c r="E377">
-        <v>24395.09686994772</v>
+        <v>24395.09686994771</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6783,13 +6783,13 @@
         <v>21235.64817059285</v>
       </c>
       <c r="C378">
-        <v>24683.81516816587</v>
+        <v>24683.81516816588</v>
       </c>
       <c r="D378">
-        <v>28008.65833217099</v>
+        <v>28008.65833217098</v>
       </c>
       <c r="E378">
-        <v>30945.21865781405</v>
+        <v>30945.21865781406</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,13 +6800,13 @@
         <v>21235.64817059285</v>
       </c>
       <c r="C379">
-        <v>24683.81516816587</v>
+        <v>24683.81516816588</v>
       </c>
       <c r="D379">
-        <v>28008.65833217099</v>
+        <v>28008.65833217098</v>
       </c>
       <c r="E379">
-        <v>30945.21865781405</v>
+        <v>30945.21865781406</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6817,13 +6817,13 @@
         <v>21235.64817059285</v>
       </c>
       <c r="C380">
-        <v>24683.81516816587</v>
+        <v>24683.81516816588</v>
       </c>
       <c r="D380">
-        <v>28008.65833217099</v>
+        <v>28008.65833217098</v>
       </c>
       <c r="E380">
-        <v>30945.21865781405</v>
+        <v>30945.21865781406</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6834,13 +6834,13 @@
         <v>21235.64817059285</v>
       </c>
       <c r="C381">
-        <v>24683.81516816587</v>
+        <v>24683.81516816588</v>
       </c>
       <c r="D381">
-        <v>28008.65833217099</v>
+        <v>28008.65833217098</v>
       </c>
       <c r="E381">
-        <v>30945.21865781405</v>
+        <v>30945.21865781406</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>24165.3385663635</v>
       </c>
       <c r="E382">
-        <v>27415.4768703306</v>
+        <v>27415.47687033062</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,16 +6865,16 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>13581.50015848771</v>
+        <v>13581.5001584877</v>
       </c>
       <c r="C383">
-        <v>18044.61786144099</v>
+        <v>18044.617861441</v>
       </c>
       <c r="D383">
         <v>23861.35015639945</v>
       </c>
       <c r="E383">
-        <v>29460.26662516661</v>
+        <v>29460.2666251666</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6885,7 +6885,7 @@
         <v>13919.54171877428</v>
       </c>
       <c r="C384">
-        <v>18529.24245751233</v>
+        <v>18529.24245751234</v>
       </c>
       <c r="D384">
         <v>24621.35317936459</v>
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>23434.90145569508</v>
+        <v>23434.90145569509</v>
       </c>
       <c r="C385">
-        <v>27139.05163697733</v>
+        <v>27139.05163697734</v>
       </c>
       <c r="D385">
-        <v>32498.33476498825</v>
+        <v>32498.33476498823</v>
       </c>
       <c r="E385">
-        <v>38425.23825124618</v>
+        <v>38425.23825124614</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>4079.669271975485</v>
+        <v>4079.669271975486</v>
       </c>
       <c r="C388">
         <v>5053.095618431961</v>
@@ -6959,7 +6959,7 @@
         <v>7115.97385915046</v>
       </c>
       <c r="E388">
-        <v>10223.61811068105</v>
+        <v>10223.61811068104</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6967,13 +6967,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>1655.8288908703</v>
+        <v>1655.828890870299</v>
       </c>
       <c r="C389">
         <v>2077.651771871281</v>
       </c>
       <c r="D389">
-        <v>3157.900053654315</v>
+        <v>3157.900053654316</v>
       </c>
       <c r="E389">
         <v>4586.602669394494</v>
@@ -6984,13 +6984,13 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>1655.8288908703</v>
+        <v>1655.828890870299</v>
       </c>
       <c r="C390">
         <v>2077.651771871281</v>
       </c>
       <c r="D390">
-        <v>3157.900053654315</v>
+        <v>3157.900053654316</v>
       </c>
       <c r="E390">
         <v>4586.602669394494</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>4079.669271975485</v>
+        <v>4079.669271975486</v>
       </c>
       <c r="C391">
         <v>5053.095618431961</v>
@@ -7010,7 +7010,7 @@
         <v>7115.97385915046</v>
       </c>
       <c r="E391">
-        <v>10223.61811068105</v>
+        <v>10223.61811068104</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7018,13 +7018,13 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>1655.8288908703</v>
+        <v>1655.828890870299</v>
       </c>
       <c r="C392">
         <v>2077.651771871281</v>
       </c>
       <c r="D392">
-        <v>3157.900053654315</v>
+        <v>3157.900053654316</v>
       </c>
       <c r="E392">
         <v>4586.602669394494</v>
@@ -7041,7 +7041,7 @@
         <v>2046.759961328731</v>
       </c>
       <c r="D393">
-        <v>2603.72735426291</v>
+        <v>2603.727354262909</v>
       </c>
       <c r="E393">
         <v>3113.049811838232</v>
@@ -7058,7 +7058,7 @@
         <v>2046.759961328731</v>
       </c>
       <c r="D394">
-        <v>2603.72735426291</v>
+        <v>2603.727354262909</v>
       </c>
       <c r="E394">
         <v>3113.049811838232</v>
@@ -7072,7 +7072,7 @@
         <v>1226.957693963049</v>
       </c>
       <c r="C395">
-        <v>1488.213695843897</v>
+        <v>1488.213695843898</v>
       </c>
       <c r="D395">
         <v>1946.078687200174</v>
@@ -7089,7 +7089,7 @@
         <v>1226.957693963049</v>
       </c>
       <c r="C396">
-        <v>1488.213695843897</v>
+        <v>1488.213695843898</v>
       </c>
       <c r="D396">
         <v>1946.078687200174</v>
@@ -7103,13 +7103,13 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>524.0861443205295</v>
+        <v>524.0861443205296</v>
       </c>
       <c r="C397">
         <v>636.9723365039349</v>
       </c>
       <c r="D397">
-        <v>1004.19049377998</v>
+        <v>1004.190493779979</v>
       </c>
       <c r="E397">
         <v>1554.275365338214</v>
@@ -7120,13 +7120,13 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>524.0861443205295</v>
+        <v>524.0861443205296</v>
       </c>
       <c r="C398">
         <v>636.9723365039349</v>
       </c>
       <c r="D398">
-        <v>1004.19049377998</v>
+        <v>1004.190493779979</v>
       </c>
       <c r="E398">
         <v>1554.275365338214</v>
@@ -7140,13 +7140,13 @@
         <v>2767.771381393926</v>
       </c>
       <c r="C399">
-        <v>3256.854092679191</v>
+        <v>3256.854092679192</v>
       </c>
       <c r="D399">
-        <v>4595.361303420375</v>
+        <v>4595.361303420376</v>
       </c>
       <c r="E399">
-        <v>6812.268475243323</v>
+        <v>6812.268475243326</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7157,13 +7157,13 @@
         <v>2489.541210161401</v>
       </c>
       <c r="C400">
-        <v>2890.741008525578</v>
+        <v>2890.741008525577</v>
       </c>
       <c r="D400">
         <v>3992.720934813947</v>
       </c>
       <c r="E400">
-        <v>5812.92215778107</v>
+        <v>5812.922157781069</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7174,13 +7174,13 @@
         <v>2767.771381393926</v>
       </c>
       <c r="C401">
-        <v>3256.854092679191</v>
+        <v>3256.854092679192</v>
       </c>
       <c r="D401">
-        <v>4595.361303420375</v>
+        <v>4595.361303420376</v>
       </c>
       <c r="E401">
-        <v>6812.268475243323</v>
+        <v>6812.268475243326</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7208,13 +7208,13 @@
         <v>2489.541210161401</v>
       </c>
       <c r="C403">
-        <v>2890.741008525578</v>
+        <v>2890.741008525577</v>
       </c>
       <c r="D403">
         <v>3992.720934813947</v>
       </c>
       <c r="E403">
-        <v>5812.92215778107</v>
+        <v>5812.922157781069</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7231,7 +7231,7 @@
         <v>3117.576562530799</v>
       </c>
       <c r="E404">
-        <v>4514.892295871961</v>
+        <v>4514.89229587196</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7248,7 +7248,7 @@
         <v>3117.576562530799</v>
       </c>
       <c r="E405">
-        <v>4514.892295871961</v>
+        <v>4514.89229587196</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7265,7 +7265,7 @@
         <v>3117.576562530799</v>
       </c>
       <c r="E406">
-        <v>4514.892295871961</v>
+        <v>4514.89229587196</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7282,7 +7282,7 @@
         <v>2736.773649972904</v>
       </c>
       <c r="E407">
-        <v>3855.014264339931</v>
+        <v>3855.014264339932</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7299,7 +7299,7 @@
         <v>2736.773649972904</v>
       </c>
       <c r="E408">
-        <v>3855.014264339931</v>
+        <v>3855.014264339932</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7316,7 +7316,7 @@
         <v>2736.773649972904</v>
       </c>
       <c r="E409">
-        <v>3855.014264339931</v>
+        <v>3855.014264339932</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>5094.601494920712</v>
+        <v>5094.601494920714</v>
       </c>
       <c r="C410">
-        <v>7089.361493765839</v>
+        <v>7089.361493765837</v>
       </c>
       <c r="D410">
         <v>11576.08749438046</v>
       </c>
       <c r="E410">
-        <v>17116.16554166554</v>
+        <v>17116.16554166555</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,16 +7341,16 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>3654.534010725696</v>
+        <v>3654.534010725695</v>
       </c>
       <c r="C411">
-        <v>4951.59391182063</v>
+        <v>4951.593911820631</v>
       </c>
       <c r="D411">
         <v>8276.606407212677</v>
       </c>
       <c r="E411">
-        <v>12582.86416455774</v>
+        <v>12582.86416455773</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>3654.534010725696</v>
+        <v>3654.534010725695</v>
       </c>
       <c r="C412">
-        <v>4951.59391182063</v>
+        <v>4951.593911820631</v>
       </c>
       <c r="D412">
         <v>8276.606407212677</v>
       </c>
       <c r="E412">
-        <v>12582.86416455774</v>
+        <v>12582.86416455773</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>5094.601494920712</v>
+        <v>5094.601494920714</v>
       </c>
       <c r="C414">
-        <v>7089.361493765839</v>
+        <v>7089.361493765837</v>
       </c>
       <c r="D414">
         <v>11576.08749438046</v>
       </c>
       <c r="E414">
-        <v>17116.16554166554</v>
+        <v>17116.16554166555</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,10 +7409,10 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>5136.132907034629</v>
+        <v>5136.132907034628</v>
       </c>
       <c r="C415">
-        <v>6836.741317730613</v>
+        <v>6836.741317730611</v>
       </c>
       <c r="D415">
         <v>10896.69651789991</v>
@@ -7426,10 +7426,10 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>5136.132907034629</v>
+        <v>5136.132907034628</v>
       </c>
       <c r="C416">
-        <v>6836.741317730613</v>
+        <v>6836.741317730611</v>
       </c>
       <c r="D416">
         <v>10896.69651789991</v>
@@ -7443,16 +7443,16 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>2355.366790641732</v>
+        <v>2355.366790641731</v>
       </c>
       <c r="C417">
         <v>2644.04419305901</v>
       </c>
       <c r="D417">
-        <v>3533.024716497679</v>
+        <v>3533.024716497678</v>
       </c>
       <c r="E417">
-        <v>5331.022046807091</v>
+        <v>5331.022046807092</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7460,16 +7460,16 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>2355.366790641732</v>
+        <v>2355.366790641731</v>
       </c>
       <c r="C418">
         <v>2644.04419305901</v>
       </c>
       <c r="D418">
-        <v>3533.024716497679</v>
+        <v>3533.024716497678</v>
       </c>
       <c r="E418">
-        <v>5331.022046807091</v>
+        <v>5331.022046807092</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7477,10 +7477,10 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C419">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D419">
         <v>9792.553569215997</v>
@@ -7494,10 +7494,10 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C420">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D420">
         <v>9792.553569215997</v>
@@ -7511,10 +7511,10 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C421">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D421">
         <v>9792.553569215997</v>
@@ -7528,10 +7528,10 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C422">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D422">
         <v>9792.553569215997</v>
@@ -7545,10 +7545,10 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C423">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D423">
         <v>9792.553569215997</v>
@@ -7562,10 +7562,10 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C424">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D424">
         <v>9792.553569215997</v>
@@ -7579,10 +7579,10 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C425">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D425">
         <v>9792.553569215997</v>
@@ -7596,10 +7596,10 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C426">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D426">
         <v>9792.553569215997</v>
@@ -7613,10 +7613,10 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C427">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D427">
         <v>9792.553569215997</v>
@@ -7630,10 +7630,10 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C428">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D428">
         <v>9792.553569215997</v>
@@ -7647,10 +7647,10 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C429">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D429">
         <v>9792.553569215997</v>
@@ -7664,10 +7664,10 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C430">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D430">
         <v>9792.553569215997</v>
@@ -7681,10 +7681,10 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C431">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D431">
         <v>9792.553569215997</v>
@@ -7698,10 +7698,10 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C432">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D432">
         <v>9792.553569215997</v>
@@ -7715,10 +7715,10 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C433">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D433">
         <v>9792.553569215997</v>
@@ -7732,13 +7732,13 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>3483.551628905363</v>
+        <v>3483.551628905364</v>
       </c>
       <c r="C434">
-        <v>4408.293735865086</v>
+        <v>4408.293735865085</v>
       </c>
       <c r="D434">
-        <v>6683.164887684944</v>
+        <v>6683.164887684943</v>
       </c>
       <c r="E434">
         <v>10065.43559704448</v>
@@ -7749,10 +7749,10 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C435">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D435">
         <v>9792.553569215997</v>
@@ -7766,13 +7766,13 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>514.4414202664353</v>
+        <v>514.4414202664352</v>
       </c>
       <c r="C436">
         <v>606.9755561797512</v>
       </c>
       <c r="D436">
-        <v>831.8047009540711</v>
+        <v>831.8047009540712</v>
       </c>
       <c r="E436">
         <v>1121.965325067237</v>
@@ -7792,7 +7792,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E437">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7809,7 +7809,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E438">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7826,7 +7826,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E439">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7843,7 +7843,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E440">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7860,7 +7860,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E441">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7877,7 +7877,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E442">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7894,7 +7894,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E443">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7911,7 +7911,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E444">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7928,7 +7928,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E445">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7945,7 +7945,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E446">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7962,7 +7962,7 @@
         <v>3613.368782779708</v>
       </c>
       <c r="E447">
-        <v>5487.588139211741</v>
+        <v>5487.588139211742</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7973,13 +7973,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C448">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D448">
         <v>11427.59295797128</v>
       </c>
       <c r="E448">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7990,13 +7990,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C449">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D449">
         <v>11427.59295797128</v>
       </c>
       <c r="E449">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8007,13 +8007,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C450">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D450">
         <v>11427.59295797128</v>
       </c>
       <c r="E450">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8024,13 +8024,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C451">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D451">
         <v>11427.59295797128</v>
       </c>
       <c r="E451">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8041,13 +8041,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C452">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D452">
         <v>11427.59295797128</v>
       </c>
       <c r="E452">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8058,13 +8058,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C453">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D453">
         <v>11427.59295797128</v>
       </c>
       <c r="E453">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C454">
         <v>9523.6890376096</v>
@@ -8081,7 +8081,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E454">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C455">
         <v>9523.6890376096</v>
@@ -8098,7 +8098,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E455">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,7 +8106,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C456">
         <v>9523.6890376096</v>
@@ -8115,7 +8115,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E456">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C457">
         <v>9523.6890376096</v>
@@ -8132,7 +8132,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E457">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C458">
         <v>9523.6890376096</v>
@@ -8149,7 +8149,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E458">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,7 +8157,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C459">
         <v>9523.6890376096</v>
@@ -8166,7 +8166,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E459">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C460">
         <v>9523.6890376096</v>
@@ -8183,7 +8183,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E460">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,7 +8191,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C461">
         <v>9523.6890376096</v>
@@ -8200,7 +8200,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E461">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C462">
         <v>9523.6890376096</v>
@@ -8217,7 +8217,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E462">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8225,10 +8225,10 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C463">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D463">
         <v>9792.553569215997</v>
@@ -8242,10 +8242,10 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C464">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D464">
         <v>9792.553569215997</v>
@@ -8259,13 +8259,13 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>3483.551628905363</v>
+        <v>3483.551628905364</v>
       </c>
       <c r="C465">
-        <v>4408.293735865086</v>
+        <v>4408.293735865085</v>
       </c>
       <c r="D465">
-        <v>6683.164887684944</v>
+        <v>6683.164887684943</v>
       </c>
       <c r="E465">
         <v>10065.43559704448</v>
@@ -8276,13 +8276,13 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>3483.551628905363</v>
+        <v>3483.551628905364</v>
       </c>
       <c r="C466">
-        <v>4408.293735865086</v>
+        <v>4408.293735865085</v>
       </c>
       <c r="D466">
-        <v>6683.164887684944</v>
+        <v>6683.164887684943</v>
       </c>
       <c r="E466">
         <v>10065.43559704448</v>
@@ -8293,10 +8293,10 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C467">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D467">
         <v>9792.553569215997</v>
@@ -8313,13 +8313,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C468">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D468">
         <v>11427.59295797128</v>
       </c>
       <c r="E468">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8330,13 +8330,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C469">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D469">
         <v>11427.59295797128</v>
       </c>
       <c r="E469">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8347,13 +8347,13 @@
         <v>5403.169890887361</v>
       </c>
       <c r="C470">
-        <v>7258.857278925293</v>
+        <v>7258.857278925294</v>
       </c>
       <c r="D470">
         <v>11427.59295797128</v>
       </c>
       <c r="E470">
-        <v>17188.00801789232</v>
+        <v>17188.00801789231</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8361,10 +8361,10 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>5044.009506826023</v>
+        <v>5044.009506826022</v>
       </c>
       <c r="C471">
-        <v>6475.20979096892</v>
+        <v>6475.209790968916</v>
       </c>
       <c r="D471">
         <v>9792.553569215997</v>
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>7553.429505270277</v>
+        <v>7553.429505270275</v>
       </c>
       <c r="C472">
         <v>9523.6890376096</v>
@@ -8387,7 +8387,7 @@
         <v>13950.76220412184</v>
       </c>
       <c r="E472">
-        <v>20048.83059284382</v>
+        <v>20048.83059284381</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8395,13 +8395,13 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>3483.551628905363</v>
+        <v>3483.551628905364</v>
       </c>
       <c r="C473">
-        <v>4408.293735865086</v>
+        <v>4408.293735865085</v>
       </c>
       <c r="D473">
-        <v>6683.164887684944</v>
+        <v>6683.164887684943</v>
       </c>
       <c r="E473">
         <v>10065.43559704448</v>
@@ -8412,13 +8412,13 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>3483.551628905363</v>
+        <v>3483.551628905364</v>
       </c>
       <c r="C474">
-        <v>4408.293735865086</v>
+        <v>4408.293735865085</v>
       </c>
       <c r="D474">
-        <v>6683.164887684944</v>
+        <v>6683.164887684943</v>
       </c>
       <c r="E474">
         <v>10065.43559704448</v>
@@ -8429,13 +8429,13 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>514.4414202664353</v>
+        <v>514.4414202664352</v>
       </c>
       <c r="C475">
         <v>606.9755561797512</v>
       </c>
       <c r="D475">
-        <v>831.8047009540711</v>
+        <v>831.8047009540712</v>
       </c>
       <c r="E475">
         <v>1121.965325067237</v>
@@ -8446,16 +8446,16 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>2621.520583126749</v>
+        <v>2621.520583126748</v>
       </c>
       <c r="C476">
-        <v>3295.290460667765</v>
+        <v>3295.290460667766</v>
       </c>
       <c r="D476">
-        <v>5093.55262980596</v>
+        <v>5093.552629805959</v>
       </c>
       <c r="E476">
-        <v>7752.281507306535</v>
+        <v>7752.281507306534</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8463,16 +8463,16 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>2621.520583126749</v>
+        <v>2621.520583126748</v>
       </c>
       <c r="C477">
-        <v>3295.290460667765</v>
+        <v>3295.290460667766</v>
       </c>
       <c r="D477">
-        <v>5093.55262980596</v>
+        <v>5093.552629805959</v>
       </c>
       <c r="E477">
-        <v>7752.281507306535</v>
+        <v>7752.281507306534</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8486,7 +8486,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D478">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E478">
         <v>12341.28746419063</v>
@@ -8503,7 +8503,7 @@
         <v>5698.932344138498</v>
       </c>
       <c r="D479">
-        <v>8146.614924555917</v>
+        <v>8146.614924555919</v>
       </c>
       <c r="E479">
         <v>11651.47057535704</v>
@@ -8520,7 +8520,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D480">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E480">
         <v>12341.28746419063</v>
@@ -8537,7 +8537,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D481">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E481">
         <v>12341.28746419063</v>
@@ -8554,7 +8554,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D482">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E482">
         <v>12341.28746419063</v>
@@ -8571,7 +8571,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D483">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E483">
         <v>12341.28746419063</v>
@@ -8588,7 +8588,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D484">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E484">
         <v>12341.28746419063</v>
@@ -8605,7 +8605,7 @@
         <v>5978.561056173383</v>
       </c>
       <c r="D485">
-        <v>8618.834001868436</v>
+        <v>8618.834001868434</v>
       </c>
       <c r="E485">
         <v>12341.28746419063</v>
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>4972.852765414346</v>
+        <v>4972.852765414345</v>
       </c>
       <c r="C486">
         <v>6276.750815830251</v>
       </c>
       <c r="D486">
-        <v>9146.947659475776</v>
+        <v>9146.947659475778</v>
       </c>
       <c r="E486">
         <v>13184.9027499992</v>
@@ -8633,13 +8633,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>4168.681295341511</v>
+        <v>4168.68129534151</v>
       </c>
       <c r="C487">
-        <v>5142.741871271998</v>
+        <v>5142.741871271997</v>
       </c>
       <c r="D487">
-        <v>7198.768790853745</v>
+        <v>7198.768790853742</v>
       </c>
       <c r="E487">
         <v>10012.70966599131</v>
@@ -8650,7 +8650,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>839.4668318463245</v>
+        <v>839.4668318463246</v>
       </c>
       <c r="C488">
         <v>1006.216027938687</v>
@@ -8667,7 +8667,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>839.4668318463245</v>
+        <v>839.4668318463246</v>
       </c>
       <c r="C489">
         <v>1006.216027938687</v>
@@ -8684,13 +8684,13 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>6474.839321262867</v>
+        <v>6474.839321262866</v>
       </c>
       <c r="C490">
-        <v>8541.23713542776</v>
+        <v>8541.237135427762</v>
       </c>
       <c r="D490">
-        <v>12948.59664530835</v>
+        <v>12948.59664530836</v>
       </c>
       <c r="E490">
         <v>18940.11678081029</v>
@@ -8701,13 +8701,13 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>6474.839321262867</v>
+        <v>6474.839321262866</v>
       </c>
       <c r="C491">
-        <v>8541.23713542776</v>
+        <v>8541.237135427762</v>
       </c>
       <c r="D491">
-        <v>12948.59664530835</v>
+        <v>12948.59664530836</v>
       </c>
       <c r="E491">
         <v>18940.11678081029</v>
@@ -8718,13 +8718,13 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>6474.839321262867</v>
+        <v>6474.839321262866</v>
       </c>
       <c r="C492">
-        <v>8541.23713542776</v>
+        <v>8541.237135427762</v>
       </c>
       <c r="D492">
-        <v>12948.59664530835</v>
+        <v>12948.59664530836</v>
       </c>
       <c r="E492">
         <v>18940.11678081029</v>
@@ -8735,13 +8735,13 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>6474.839321262867</v>
+        <v>6474.839321262866</v>
       </c>
       <c r="C493">
-        <v>8541.23713542776</v>
+        <v>8541.237135427762</v>
       </c>
       <c r="D493">
-        <v>12948.59664530835</v>
+        <v>12948.59664530836</v>
       </c>
       <c r="E493">
         <v>18940.11678081029</v>
@@ -8752,13 +8752,13 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>6474.839321262867</v>
+        <v>6474.839321262866</v>
       </c>
       <c r="C494">
-        <v>8541.23713542776</v>
+        <v>8541.237135427762</v>
       </c>
       <c r="D494">
-        <v>12948.59664530835</v>
+        <v>12948.59664530836</v>
       </c>
       <c r="E494">
         <v>18940.11678081029</v>
@@ -8772,7 +8772,7 @@
         <v>1808.964986214033</v>
       </c>
       <c r="C495">
-        <v>2247.907937321984</v>
+        <v>2247.907937321985</v>
       </c>
       <c r="D495">
         <v>3070.732738747093</v>
@@ -8789,13 +8789,13 @@
         <v>4894.52635676344</v>
       </c>
       <c r="C496">
-        <v>6374.333658426109</v>
+        <v>6374.333658426108</v>
       </c>
       <c r="D496">
-        <v>9782.561271013785</v>
+        <v>9782.561271013788</v>
       </c>
       <c r="E496">
-        <v>14380.64762759349</v>
+        <v>14380.6476275935</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8806,7 +8806,7 @@
         <v>1808.964986214033</v>
       </c>
       <c r="C497">
-        <v>2247.907937321984</v>
+        <v>2247.907937321985</v>
       </c>
       <c r="D497">
         <v>3070.732738747093</v>
@@ -8823,13 +8823,13 @@
         <v>1668.34968517469</v>
       </c>
       <c r="C498">
-        <v>2235.432346322131</v>
+        <v>2235.43234632213</v>
       </c>
       <c r="D498">
         <v>3783.527869954304</v>
       </c>
       <c r="E498">
-        <v>6147.180299364353</v>
+        <v>6147.180299364355</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8840,13 +8840,13 @@
         <v>1668.34968517469</v>
       </c>
       <c r="C499">
-        <v>2235.432346322131</v>
+        <v>2235.43234632213</v>
       </c>
       <c r="D499">
         <v>3783.527869954304</v>
       </c>
       <c r="E499">
-        <v>6147.180299364353</v>
+        <v>6147.180299364355</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8857,13 +8857,13 @@
         <v>1668.34968517469</v>
       </c>
       <c r="C500">
-        <v>2235.432346322131</v>
+        <v>2235.43234632213</v>
       </c>
       <c r="D500">
         <v>3783.527869954304</v>
       </c>
       <c r="E500">
-        <v>6147.180299364353</v>
+        <v>6147.180299364355</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8880,7 +8880,7 @@
         <v>3044.468727627282</v>
       </c>
       <c r="E501">
-        <v>4978.574468170007</v>
+        <v>4978.574468170005</v>
       </c>
     </row>
   </sheetData>
